--- a/Vocabulary.xlsx
+++ b/Vocabulary.xlsx
@@ -5,11 +5,11 @@
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\lien\Desktop\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\WorkSpace\Document\"/>
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="20490" windowHeight="7755" activeTab="1"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="20490" windowHeight="7755"/>
   </bookViews>
   <sheets>
     <sheet name="Vocabulary" sheetId="1" r:id="rId1"/>
@@ -27,7 +27,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="134" uniqueCount="122">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="137" uniqueCount="123">
   <si>
     <t>commitment</t>
   </si>
@@ -422,6 +422,9 @@
   </si>
   <si>
     <t>MySQL</t>
+  </si>
+  <si>
+    <t>test</t>
   </si>
 </sst>
 </file>
@@ -537,16 +540,16 @@
     </xf>
     <xf numFmtId="0" fontId="3" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="4" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -1134,8 +1137,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A2:D199"/>
   <sheetViews>
-    <sheetView topLeftCell="A17" workbookViewId="0">
-      <selection activeCell="F36" sqref="F36"/>
+    <sheetView tabSelected="1" topLeftCell="A32" workbookViewId="0">
+      <selection activeCell="D37" sqref="D37"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
@@ -1616,9 +1619,15 @@
       <c r="A37" s="5">
         <v>36</v>
       </c>
-      <c r="B37" s="6"/>
-      <c r="C37" s="6"/>
-      <c r="D37" s="6"/>
+      <c r="B37" s="6" t="s">
+        <v>122</v>
+      </c>
+      <c r="C37" s="6" t="s">
+        <v>122</v>
+      </c>
+      <c r="D37" s="6" t="s">
+        <v>122</v>
+      </c>
     </row>
     <row r="38" spans="1:4">
       <c r="A38" s="5">
@@ -2926,8 +2935,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A2:B8"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="B12" sqref="B12"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="B7" sqref="B7"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
@@ -2937,54 +2946,54 @@
   </cols>
   <sheetData>
     <row r="2" spans="1:2">
-      <c r="A2" s="15" t="s">
+      <c r="A2" s="14" t="s">
         <v>111</v>
       </c>
-      <c r="B2" s="16" t="s">
+      <c r="B2" s="13" t="s">
         <v>112</v>
       </c>
     </row>
     <row r="3" spans="1:2">
-      <c r="A3" s="15"/>
-      <c r="B3" s="16" t="s">
+      <c r="A3" s="14"/>
+      <c r="B3" s="13" t="s">
         <v>113</v>
       </c>
     </row>
     <row r="4" spans="1:2">
-      <c r="A4" s="16" t="s">
+      <c r="A4" s="13" t="s">
         <v>114</v>
       </c>
-      <c r="B4" s="16" t="s">
+      <c r="B4" s="13" t="s">
         <v>115</v>
       </c>
     </row>
     <row r="5" spans="1:2">
-      <c r="A5" s="15" t="s">
+      <c r="A5" s="14" t="s">
         <v>116</v>
       </c>
-      <c r="B5" s="16" t="s">
+      <c r="B5" s="13" t="s">
         <v>117</v>
       </c>
     </row>
     <row r="6" spans="1:2">
-      <c r="A6" s="15"/>
-      <c r="B6" s="16" t="s">
+      <c r="A6" s="14"/>
+      <c r="B6" s="13" t="s">
         <v>118</v>
       </c>
     </row>
     <row r="7" spans="1:2">
-      <c r="A7" s="16" t="s">
+      <c r="A7" s="13" t="s">
         <v>119</v>
       </c>
-      <c r="B7" s="16" t="s">
+      <c r="B7" s="13" t="s">
         <v>120</v>
       </c>
     </row>
     <row r="8" spans="1:2">
-      <c r="A8" s="16" t="s">
+      <c r="A8" s="13" t="s">
         <v>121</v>
       </c>
-      <c r="B8" s="16"/>
+      <c r="B8" s="13"/>
     </row>
   </sheetData>
   <mergeCells count="2">
@@ -3059,22 +3068,22 @@
       </c>
     </row>
     <row r="13" spans="2:17">
-      <c r="C13" s="13" t="s">
+      <c r="C13" s="16" t="s">
         <v>39</v>
       </c>
-      <c r="D13" s="13"/>
-      <c r="E13" s="13" t="s">
+      <c r="D13" s="16"/>
+      <c r="E13" s="16" t="s">
         <v>40</v>
       </c>
-      <c r="F13" s="13"/>
-      <c r="G13" s="13" t="s">
+      <c r="F13" s="16"/>
+      <c r="G13" s="16" t="s">
         <v>49</v>
       </c>
-      <c r="H13" s="13"/>
-      <c r="M13" s="13" t="s">
+      <c r="H13" s="16"/>
+      <c r="M13" s="16" t="s">
         <v>49</v>
       </c>
-      <c r="N13" s="13"/>
+      <c r="N13" s="16"/>
       <c r="O13" t="s">
         <v>42</v>
       </c>
@@ -3084,72 +3093,72 @@
       <c r="Q13" s="2"/>
     </row>
     <row r="14" spans="2:17">
-      <c r="C14" s="14" t="s">
+      <c r="C14" s="15" t="s">
         <v>42</v>
       </c>
-      <c r="D14" s="14"/>
-      <c r="E14" s="14" t="s">
+      <c r="D14" s="15"/>
+      <c r="E14" s="15" t="s">
         <v>42</v>
       </c>
-      <c r="F14" s="14"/>
-      <c r="G14" s="14" t="s">
+      <c r="F14" s="15"/>
+      <c r="G14" s="15" t="s">
         <v>42</v>
       </c>
-      <c r="H14" s="14"/>
+      <c r="H14" s="15"/>
       <c r="K14" s="4"/>
       <c r="L14" s="4"/>
     </row>
     <row r="15" spans="2:17">
-      <c r="C15" s="14" t="s">
+      <c r="C15" s="15" t="s">
         <v>44</v>
       </c>
-      <c r="D15" s="14"/>
-      <c r="E15" s="14" t="s">
+      <c r="D15" s="15"/>
+      <c r="E15" s="15" t="s">
         <v>43</v>
       </c>
-      <c r="F15" s="14"/>
-      <c r="G15" s="14" t="s">
+      <c r="F15" s="15"/>
+      <c r="G15" s="15" t="s">
         <v>47</v>
       </c>
-      <c r="H15" s="14"/>
+      <c r="H15" s="15"/>
       <c r="K15" s="4"/>
       <c r="L15" s="4"/>
     </row>
     <row r="16" spans="2:17">
-      <c r="C16" s="14" t="s">
+      <c r="C16" s="15" t="s">
         <v>45</v>
       </c>
-      <c r="D16" s="14"/>
+      <c r="D16" s="15"/>
       <c r="E16" s="1"/>
       <c r="F16" s="1"/>
       <c r="G16" s="1"/>
       <c r="H16" s="1"/>
     </row>
     <row r="17" spans="3:8">
-      <c r="C17" s="14" t="s">
+      <c r="C17" s="15" t="s">
         <v>46</v>
       </c>
-      <c r="D17" s="14"/>
+      <c r="D17" s="15"/>
       <c r="E17" s="1"/>
       <c r="F17" s="1"/>
       <c r="G17" s="1"/>
       <c r="H17" s="1"/>
     </row>
     <row r="18" spans="3:8">
-      <c r="C18" s="14" t="s">
+      <c r="C18" s="15" t="s">
         <v>47</v>
       </c>
-      <c r="D18" s="14"/>
+      <c r="D18" s="15"/>
       <c r="E18" s="1"/>
       <c r="F18" s="1"/>
       <c r="G18" s="1"/>
       <c r="H18" s="1"/>
     </row>
     <row r="19" spans="3:8">
-      <c r="C19" s="14" t="s">
+      <c r="C19" s="15" t="s">
         <v>48</v>
       </c>
-      <c r="D19" s="14"/>
+      <c r="D19" s="15"/>
       <c r="E19" s="1"/>
       <c r="F19" s="1"/>
       <c r="G19" s="1"/>
@@ -3161,48 +3170,43 @@
       </c>
     </row>
     <row r="23" spans="3:8">
-      <c r="C23" s="14" t="s">
+      <c r="C23" s="15" t="s">
         <v>42</v>
       </c>
-      <c r="D23" s="14"/>
+      <c r="D23" s="15"/>
     </row>
     <row r="24" spans="3:8">
-      <c r="C24" s="14" t="s">
+      <c r="C24" s="15" t="s">
         <v>44</v>
       </c>
-      <c r="D24" s="14"/>
+      <c r="D24" s="15"/>
     </row>
     <row r="25" spans="3:8">
-      <c r="C25" s="14" t="s">
+      <c r="C25" s="15" t="s">
         <v>45</v>
       </c>
-      <c r="D25" s="14"/>
+      <c r="D25" s="15"/>
     </row>
     <row r="26" spans="3:8">
-      <c r="C26" s="14" t="s">
+      <c r="C26" s="15" t="s">
         <v>46</v>
       </c>
-      <c r="D26" s="14"/>
+      <c r="D26" s="15"/>
     </row>
     <row r="27" spans="3:8">
-      <c r="C27" s="14" t="s">
+      <c r="C27" s="15" t="s">
         <v>47</v>
       </c>
-      <c r="D27" s="14"/>
+      <c r="D27" s="15"/>
     </row>
     <row r="28" spans="3:8">
-      <c r="C28" s="14" t="s">
+      <c r="C28" s="15" t="s">
         <v>48</v>
       </c>
-      <c r="D28" s="14"/>
+      <c r="D28" s="15"/>
     </row>
   </sheetData>
   <mergeCells count="20">
-    <mergeCell ref="C27:D27"/>
-    <mergeCell ref="C28:D28"/>
-    <mergeCell ref="C17:D17"/>
-    <mergeCell ref="C18:D18"/>
-    <mergeCell ref="C19:D19"/>
     <mergeCell ref="M13:N13"/>
     <mergeCell ref="C23:D23"/>
     <mergeCell ref="C24:D24"/>
@@ -3218,6 +3222,11 @@
     <mergeCell ref="C14:D14"/>
     <mergeCell ref="C15:D15"/>
     <mergeCell ref="C16:D16"/>
+    <mergeCell ref="C27:D27"/>
+    <mergeCell ref="C28:D28"/>
+    <mergeCell ref="C17:D17"/>
+    <mergeCell ref="C18:D18"/>
+    <mergeCell ref="C19:D19"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>

--- a/Vocabulary.xlsx
+++ b/Vocabulary.xlsx
@@ -13,9 +13,12 @@
   </bookViews>
   <sheets>
     <sheet name="Vocabulary" sheetId="1" r:id="rId1"/>
-    <sheet name="Automation Software" sheetId="4" r:id="rId2"/>
-    <sheet name="Project Info" sheetId="2" r:id="rId3"/>
-    <sheet name="Q&amp;A" sheetId="3" r:id="rId4"/>
+    <sheet name="Master Data" sheetId="5" r:id="rId2"/>
+    <sheet name="Automation Software" sheetId="4" r:id="rId3"/>
+    <sheet name="Project Info" sheetId="2" r:id="rId4"/>
+    <sheet name="Q&amp;A" sheetId="3" r:id="rId5"/>
+    <sheet name="Q&amp;A 19072017" sheetId="6" r:id="rId6"/>
+    <sheet name="Note HR" sheetId="8" r:id="rId7"/>
   </sheets>
   <calcPr calcId="152511"/>
   <extLst>
@@ -27,7 +30,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="137" uniqueCount="123">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="188" uniqueCount="176">
   <si>
     <t>commitment</t>
   </si>
@@ -92,9 +95,6 @@
   </si>
   <si>
     <t>Đánh giá hệ thống</t>
-  </si>
-  <si>
-    <t>Expenses</t>
   </si>
   <si>
     <t>Chi phí</t>
@@ -349,9 +349,6 @@
     <t>/ɪˈfɪʃnsi/</t>
   </si>
   <si>
-    <t>Năng suất, hiểu quả</t>
-  </si>
-  <si>
     <t>efficiency(n), efficient (adj)</t>
   </si>
   <si>
@@ -424,14 +421,330 @@
     <t>MySQL</t>
   </si>
   <si>
-    <t>test</t>
+    <t>implicitly</t>
+  </si>
+  <si>
+    <t>hoàn toàn</t>
+  </si>
+  <si>
+    <t>/ɪmˈplɪsɪtli/</t>
+  </si>
+  <si>
+    <t>The Fixed Asset Master Data shall include 7 sessions to be setup:</t>
+  </si>
+  <si>
+    <r>
+      <t>·</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="7"/>
+        <color theme="1"/>
+        <rFont val="Times New Roman"/>
+        <family val="1"/>
+      </rPr>
+      <t xml:space="preserve">         </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color theme="1"/>
+        <rFont val="Times New Roman"/>
+        <family val="1"/>
+      </rPr>
+      <t>Asset Groups</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <t>·</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="7"/>
+        <color theme="1"/>
+        <rFont val="Times New Roman"/>
+        <family val="1"/>
+      </rPr>
+      <t xml:space="preserve">         </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color theme="1"/>
+        <rFont val="Times New Roman"/>
+        <family val="1"/>
+      </rPr>
+      <t>Categories</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <t>·</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="7"/>
+        <color theme="1"/>
+        <rFont val="Times New Roman"/>
+        <family val="1"/>
+      </rPr>
+      <t xml:space="preserve">         </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color theme="1"/>
+        <rFont val="Times New Roman"/>
+        <family val="1"/>
+      </rPr>
+      <t>Property Types</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <t>·</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="7"/>
+        <color theme="1"/>
+        <rFont val="Times New Roman"/>
+        <family val="1"/>
+      </rPr>
+      <t xml:space="preserve">         </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color theme="1"/>
+        <rFont val="Times New Roman"/>
+        <family val="1"/>
+      </rPr>
+      <t>Reasons</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <t>·</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="7"/>
+        <color theme="1"/>
+        <rFont val="Times New Roman"/>
+        <family val="1"/>
+      </rPr>
+      <t xml:space="preserve">         </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color theme="1"/>
+        <rFont val="Times New Roman"/>
+        <family val="1"/>
+      </rPr>
+      <t>Locations</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <t>·</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="7"/>
+        <color theme="1"/>
+        <rFont val="Times New Roman"/>
+        <family val="1"/>
+      </rPr>
+      <t xml:space="preserve">         </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color theme="1"/>
+        <rFont val="Times New Roman"/>
+        <family val="1"/>
+      </rPr>
+      <t>Depreciation Frequencies</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <t>·</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="7"/>
+        <color theme="1"/>
+        <rFont val="Times New Roman"/>
+        <family val="1"/>
+      </rPr>
+      <t xml:space="preserve">         </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color theme="1"/>
+        <rFont val="Times New Roman"/>
+        <family val="1"/>
+      </rPr>
+      <t>Depreciation Method</t>
+    </r>
+  </si>
+  <si>
+    <t>effectively</t>
+  </si>
+  <si>
+    <t>/ɪˈfektɪvli/</t>
+  </si>
+  <si>
+    <t>Có hiệu lực, có hiệu quả, có ích</t>
+  </si>
+  <si>
+    <t>NOTE: có hiệu quả; được dùng để nói về việc tạo ra/đạt được kết quả mong muốn.</t>
+  </si>
+  <si>
+    <t>NOTE:Có hiệu suất cao (máy móc), năng suất cao (người); dùng để chỉ cách làm việc tốt và kĩ lưỡng mà không  lãng phí thời gian, tiền bạc hay công sức.</t>
+  </si>
+  <si>
+    <t>Năng suất, hiệu quả</t>
+  </si>
+  <si>
+    <t>1. Company Reg. No. , Zip Code không đc đề cập trong file excel nhỉ?</t>
+  </si>
+  <si>
+    <t>2. City field is Dropdown list of cities for Malaysia only</t>
+  </si>
+  <si>
+    <t>Rứa khi country không phải Malaysia thì nó là gì nhỉ? là thẻ input bình thường hay sao? Tương tự cho Province</t>
+  </si>
+  <si>
+    <t>3. Với Company information, I think Address field is required</t>
+  </si>
+  <si>
+    <t>4. Format phone number?</t>
+  </si>
+  <si>
+    <t xml:space="preserve">5. When one of "Contact Person Information" is filled, some fields will become mandatory field, example first name, last name, mobile phone... Elseside, if  </t>
+  </si>
+  <si>
+    <t>6.  Company Reg. No., GST ID No., Fax No., Zip Code, phone, Extension: Chỉ cho phép nhập kí tự số? nên giới hạn?</t>
+  </si>
+  <si>
+    <t>7. Khi success thì display message successful?</t>
+  </si>
+  <si>
+    <t>8. address (street), name:  45</t>
+  </si>
+  <si>
+    <t>9. Với form Add Billing Address thì mandatory, length??? Country, city, province như file doc mô tả hay sao (Malaysia)?</t>
+  </si>
+  <si>
+    <t>10. Value in drop down is sorted</t>
+  </si>
+  <si>
+    <t>http://www.oracle.com/technetwork/java/javase/downloads/jdk8-downloads-2133151.html</t>
+  </si>
+  <si>
+    <t>JDK (include JRE)</t>
+  </si>
+  <si>
+    <t>suppose</t>
+  </si>
+  <si>
+    <t>/səˈpoʊz/</t>
+  </si>
+  <si>
+    <t>giả sử, giả thiết, cho rằng, tin rằng</t>
+  </si>
+  <si>
+    <t>emphasize</t>
+  </si>
+  <si>
+    <t>/ˈemfəsaɪz/</t>
+  </si>
+  <si>
+    <t>nhấn mạnh, làm nổi bật</t>
+  </si>
+  <si>
+    <t>ambiguous</t>
+  </si>
+  <si>
+    <t>/æmˈbɪɡjuəs/</t>
+  </si>
+  <si>
+    <t>tối nghĩa, không rõ ràng, mơ hồ</t>
+  </si>
+  <si>
+    <t>redundant</t>
+  </si>
+  <si>
+    <t>/rɪˈdʌndənt/</t>
+  </si>
+  <si>
+    <t>thừa, dư</t>
+  </si>
+  <si>
+    <t>/ɪˌvæljuˈeɪʃn/</t>
+  </si>
+  <si>
+    <t>/ɪkˈspens/</t>
+  </si>
+  <si>
+    <t>Expense</t>
+  </si>
+  <si>
+    <t>/əˈdʒendə/</t>
+  </si>
+  <si>
+    <t>/hens/</t>
+  </si>
+  <si>
+    <t>/ˌɪləˈstreɪʃn/</t>
+  </si>
+  <si>
+    <t>/ˌɪnəˈveɪʃn/</t>
+  </si>
+  <si>
+    <t>/ˈɪnəveɪtɪv/</t>
+  </si>
+  <si>
+    <t>/dɪˌpriːʃiˈeɪʃn/</t>
+  </si>
+  <si>
+    <t>/rɪˈzɪdʒuəl/</t>
+  </si>
+  <si>
+    <t>/ˈkjuːmjəleɪtɪv/</t>
+  </si>
+  <si>
+    <r>
+      <t>cumulative evidence</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10.5"/>
+        <color theme="1"/>
+        <rFont val="Tahoma"/>
+        <family val="2"/>
+      </rPr>
+      <t>: chứng cớ luỹ tích</t>
+    </r>
+  </si>
+  <si>
+    <t>FYI gửi lai thông tin về thẻ BH UIC ở đây</t>
+  </si>
+  <si>
+    <t>D:\Owncloud\TC Systems (Vietnam) - Public\General Administration\Health care insurance</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <fonts count="6">
+  <fonts count="10">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -462,13 +775,39 @@
     <font>
       <sz val="11"/>
       <color rgb="FF333333"/>
-      <name val="Arial"/>
+      <name val="Inherit"/>
+    </font>
+    <font>
+      <sz val="12"/>
+      <color theme="1"/>
+      <name val="Times New Roman"/>
+      <family val="1"/>
+    </font>
+    <font>
+      <sz val="12"/>
+      <color theme="1"/>
+      <name val="Symbol"/>
+      <family val="1"/>
+      <charset val="2"/>
+    </font>
+    <font>
+      <sz val="7"/>
+      <color theme="1"/>
+      <name val="Times New Roman"/>
+      <family val="1"/>
+    </font>
+    <font>
+      <sz val="10.5"/>
+      <color theme="1"/>
+      <name val="Tahoma"/>
       <family val="2"/>
     </font>
     <font>
-      <sz val="11"/>
-      <color rgb="FF333333"/>
-      <name val="Inherit"/>
+      <b/>
+      <sz val="10.5"/>
+      <color theme="1"/>
+      <name val="Tahoma"/>
+      <family val="2"/>
     </font>
   </fonts>
   <fills count="4">
@@ -491,7 +830,7 @@
       </patternFill>
     </fill>
   </fills>
-  <borders count="2">
+  <borders count="3">
     <border>
       <left/>
       <right/>
@@ -514,11 +853,22 @@
       </bottom>
       <diagonal/>
     </border>
+    <border>
+      <left/>
+      <right/>
+      <top style="thin">
+        <color indexed="64"/>
+      </top>
+      <bottom style="thin">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
   </borders>
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="17">
+  <cellXfs count="20">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="left"/>
@@ -538,16 +888,25 @@
     <xf numFmtId="0" fontId="0" fillId="3" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="4" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1"/>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" indent="4"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" indent="9"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyBorder="1"/>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" indent="1"/>
+    </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left"/>
     </xf>
   </cellXfs>
@@ -1135,10 +1494,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A2:D199"/>
+  <dimension ref="A2:E200"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A32" workbookViewId="0">
-      <selection activeCell="D37" sqref="D37"/>
+    <sheetView tabSelected="1" topLeftCell="A10" workbookViewId="0">
+      <selection activeCell="D22" sqref="D22"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
@@ -1146,10 +1505,11 @@
     <col min="1" max="1" width="9.140625" style="1"/>
     <col min="2" max="2" width="31.5703125" customWidth="1"/>
     <col min="3" max="3" width="33.42578125" customWidth="1"/>
-    <col min="4" max="4" width="25.7109375" customWidth="1"/>
+    <col min="4" max="4" width="46.85546875" customWidth="1"/>
+    <col min="5" max="5" width="61" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="2" spans="1:4">
+    <row r="2" spans="1:5">
       <c r="A2" s="8">
         <v>1</v>
       </c>
@@ -1157,13 +1517,14 @@
         <v>0</v>
       </c>
       <c r="C2" s="10" t="s">
-        <v>59</v>
+        <v>58</v>
       </c>
       <c r="D2" s="9" t="s">
         <v>1</v>
       </c>
-    </row>
-    <row r="3" spans="1:4">
+      <c r="E2" s="9"/>
+    </row>
+    <row r="3" spans="1:5">
       <c r="A3" s="8">
         <v>2</v>
       </c>
@@ -1171,55 +1532,59 @@
         <v>2</v>
       </c>
       <c r="C3" s="10" t="s">
-        <v>60</v>
+        <v>59</v>
       </c>
       <c r="D3" s="9" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="4" spans="1:4">
+      <c r="E3" s="9"/>
+    </row>
+    <row r="4" spans="1:5">
       <c r="A4" s="8">
         <v>3</v>
       </c>
       <c r="B4" s="9" t="s">
         <v>4</v>
       </c>
-      <c r="C4" s="10" t="s">
-        <v>61</v>
+      <c r="C4" s="9" t="s">
+        <v>60</v>
       </c>
       <c r="D4" s="9" t="s">
         <v>5</v>
       </c>
-    </row>
-    <row r="5" spans="1:4">
+      <c r="E4" s="9"/>
+    </row>
+    <row r="5" spans="1:5">
       <c r="A5" s="8">
         <v>4</v>
       </c>
       <c r="B5" s="9" t="s">
         <v>6</v>
       </c>
-      <c r="C5" s="10" t="s">
-        <v>62</v>
+      <c r="C5" s="9" t="s">
+        <v>61</v>
       </c>
       <c r="D5" s="9" t="s">
         <v>7</v>
       </c>
-    </row>
-    <row r="6" spans="1:4">
+      <c r="E5" s="9"/>
+    </row>
+    <row r="6" spans="1:5">
       <c r="A6" s="8">
         <v>5</v>
       </c>
       <c r="B6" s="9" t="s">
         <v>8</v>
       </c>
-      <c r="C6" s="10" t="s">
-        <v>64</v>
+      <c r="C6" s="9" t="s">
+        <v>63</v>
       </c>
       <c r="D6" s="9" t="s">
         <v>9</v>
       </c>
-    </row>
-    <row r="7" spans="1:4" ht="30">
+      <c r="E6" s="9"/>
+    </row>
+    <row r="7" spans="1:5" ht="30">
       <c r="A7" s="8">
         <v>6</v>
       </c>
@@ -1227,1703 +1592,1959 @@
         <v>12</v>
       </c>
       <c r="C7" s="10" t="s">
-        <v>63</v>
+        <v>62</v>
       </c>
       <c r="D7" s="10" t="s">
         <v>13</v>
       </c>
-    </row>
-    <row r="8" spans="1:4">
+      <c r="E7" s="10"/>
+    </row>
+    <row r="8" spans="1:5">
       <c r="A8" s="8">
         <v>7</v>
       </c>
       <c r="B8" s="9" t="s">
         <v>10</v>
       </c>
-      <c r="C8" s="11" t="s">
-        <v>65</v>
+      <c r="C8" s="9" t="s">
+        <v>64</v>
       </c>
       <c r="D8" s="9" t="s">
         <v>11</v>
       </c>
-    </row>
-    <row r="9" spans="1:4">
+      <c r="E8" s="9"/>
+    </row>
+    <row r="9" spans="1:5">
       <c r="A9" s="8">
         <v>8</v>
       </c>
       <c r="B9" s="9" t="s">
         <v>14</v>
       </c>
-      <c r="C9" s="12" t="s">
-        <v>66</v>
+      <c r="C9" s="9" t="s">
+        <v>65</v>
       </c>
       <c r="D9" s="9" t="s">
         <v>15</v>
       </c>
-    </row>
-    <row r="10" spans="1:4">
+      <c r="E9" s="9"/>
+    </row>
+    <row r="10" spans="1:5">
       <c r="A10" s="8">
         <v>9</v>
       </c>
       <c r="B10" s="9" t="s">
         <v>16</v>
       </c>
-      <c r="C10" s="11" t="s">
-        <v>67</v>
+      <c r="C10" s="9" t="s">
+        <v>66</v>
       </c>
       <c r="D10" s="9"/>
-    </row>
-    <row r="11" spans="1:4">
+      <c r="E10" s="9"/>
+    </row>
+    <row r="11" spans="1:5">
       <c r="A11" s="8">
         <v>10</v>
       </c>
       <c r="B11" s="9" t="s">
         <v>17</v>
       </c>
-      <c r="C11" s="11" t="s">
-        <v>68</v>
+      <c r="C11" s="9" t="s">
+        <v>67</v>
       </c>
       <c r="D11" s="9" t="s">
         <v>18</v>
       </c>
-    </row>
-    <row r="12" spans="1:4">
+      <c r="E11" s="9"/>
+    </row>
+    <row r="12" spans="1:5">
       <c r="A12" s="5">
         <v>11</v>
       </c>
       <c r="B12" s="6" t="s">
         <v>19</v>
       </c>
-      <c r="C12" s="6"/>
+      <c r="C12" s="6" t="s">
+        <v>162</v>
+      </c>
       <c r="D12" s="6" t="s">
         <v>20</v>
       </c>
-    </row>
-    <row r="13" spans="1:4">
+      <c r="E12" s="6"/>
+    </row>
+    <row r="13" spans="1:5">
       <c r="A13" s="5">
         <v>12</v>
       </c>
       <c r="B13" s="6" t="s">
+        <v>164</v>
+      </c>
+      <c r="C13" s="6" t="s">
+        <v>163</v>
+      </c>
+      <c r="D13" s="6" t="s">
         <v>21</v>
       </c>
-      <c r="C13" s="6"/>
-      <c r="D13" s="6" t="s">
-        <v>22</v>
-      </c>
-    </row>
-    <row r="14" spans="1:4">
+      <c r="E13" s="6"/>
+    </row>
+    <row r="14" spans="1:5">
       <c r="A14" s="5">
         <v>13</v>
       </c>
       <c r="B14" s="6" t="s">
+        <v>23</v>
+      </c>
+      <c r="C14" s="6" t="s">
+        <v>165</v>
+      </c>
+      <c r="D14" s="6" t="s">
         <v>24</v>
       </c>
-      <c r="C14" s="6"/>
-      <c r="D14" s="6" t="s">
-        <v>25</v>
-      </c>
-    </row>
-    <row r="15" spans="1:4">
+      <c r="E14" s="6"/>
+    </row>
+    <row r="15" spans="1:5">
       <c r="A15" s="5">
         <v>14</v>
       </c>
       <c r="B15" s="6" t="s">
+        <v>25</v>
+      </c>
+      <c r="C15" s="6" t="s">
+        <v>166</v>
+      </c>
+      <c r="D15" s="6" t="s">
         <v>26</v>
       </c>
-      <c r="C15" s="6"/>
-      <c r="D15" s="6" t="s">
-        <v>27</v>
-      </c>
-    </row>
-    <row r="16" spans="1:4">
+      <c r="E15" s="6"/>
+    </row>
+    <row r="16" spans="1:5">
       <c r="A16" s="5">
         <v>15</v>
       </c>
       <c r="B16" s="6" t="s">
+        <v>27</v>
+      </c>
+      <c r="C16" s="6" t="s">
+        <v>167</v>
+      </c>
+      <c r="D16" s="6" t="s">
         <v>28</v>
       </c>
-      <c r="C16" s="6"/>
-      <c r="D16" s="6" t="s">
-        <v>29</v>
-      </c>
-    </row>
-    <row r="17" spans="1:4">
+      <c r="E16" s="6"/>
+    </row>
+    <row r="17" spans="1:5">
       <c r="A17" s="5">
         <v>16</v>
       </c>
       <c r="B17" s="6" t="s">
+        <v>29</v>
+      </c>
+      <c r="C17" s="6" t="s">
+        <v>168</v>
+      </c>
+      <c r="D17" s="6" t="s">
         <v>30</v>
       </c>
-      <c r="C17" s="6"/>
-      <c r="D17" s="6" t="s">
-        <v>31</v>
-      </c>
-    </row>
-    <row r="18" spans="1:4">
+      <c r="E17" s="6"/>
+    </row>
+    <row r="18" spans="1:5">
       <c r="A18" s="5">
         <v>17</v>
       </c>
       <c r="B18" s="6" t="s">
+        <v>31</v>
+      </c>
+      <c r="C18" s="6" t="s">
+        <v>169</v>
+      </c>
+      <c r="D18" s="6" t="s">
         <v>32</v>
       </c>
-      <c r="C18" s="6"/>
-      <c r="D18" s="6" t="s">
-        <v>33</v>
-      </c>
-    </row>
-    <row r="19" spans="1:4">
+      <c r="E18" s="6"/>
+    </row>
+    <row r="19" spans="1:5">
       <c r="A19" s="5">
         <v>18</v>
       </c>
       <c r="B19" s="6" t="s">
+        <v>50</v>
+      </c>
+      <c r="C19" s="6" t="s">
+        <v>170</v>
+      </c>
+      <c r="D19" s="6" t="s">
         <v>51</v>
       </c>
-      <c r="C19" s="6"/>
-      <c r="D19" s="6" t="s">
-        <v>52</v>
-      </c>
-    </row>
-    <row r="20" spans="1:4">
+      <c r="E19" s="6"/>
+    </row>
+    <row r="20" spans="1:5">
       <c r="A20" s="5">
         <v>19</v>
       </c>
       <c r="B20" s="6" t="s">
+        <v>52</v>
+      </c>
+      <c r="C20" s="6" t="s">
+        <v>171</v>
+      </c>
+      <c r="D20" s="6" t="s">
         <v>53</v>
       </c>
-      <c r="C20" s="6"/>
-      <c r="D20" s="6" t="s">
-        <v>54</v>
-      </c>
-    </row>
-    <row r="21" spans="1:4">
+      <c r="E20" s="6"/>
+    </row>
+    <row r="21" spans="1:5">
       <c r="A21" s="5">
         <v>20</v>
       </c>
       <c r="B21" s="6" t="s">
+        <v>54</v>
+      </c>
+      <c r="C21" s="6" t="s">
+        <v>172</v>
+      </c>
+      <c r="D21" s="6" t="s">
         <v>55</v>
       </c>
-      <c r="C21" s="6"/>
-      <c r="D21" s="7" t="s">
-        <v>56</v>
-      </c>
-    </row>
-    <row r="22" spans="1:4">
+      <c r="E21" s="16" t="s">
+        <v>173</v>
+      </c>
+    </row>
+    <row r="22" spans="1:5">
       <c r="A22" s="8">
         <v>21</v>
       </c>
       <c r="B22" s="9" t="s">
-        <v>57</v>
+        <v>56</v>
       </c>
       <c r="C22" s="9"/>
       <c r="D22" s="9" t="s">
-        <v>58</v>
-      </c>
-    </row>
-    <row r="23" spans="1:4">
+        <v>57</v>
+      </c>
+      <c r="E22" s="9"/>
+    </row>
+    <row r="23" spans="1:5">
       <c r="A23" s="8">
         <v>22</v>
       </c>
       <c r="B23" s="9" t="s">
+        <v>72</v>
+      </c>
+      <c r="C23" s="9" t="s">
+        <v>68</v>
+      </c>
+      <c r="D23" s="9" t="s">
         <v>73</v>
       </c>
-      <c r="C23" s="9" t="s">
-        <v>69</v>
-      </c>
-      <c r="D23" s="9" t="s">
-        <v>74</v>
-      </c>
-    </row>
-    <row r="24" spans="1:4">
+      <c r="E23" s="9"/>
+    </row>
+    <row r="24" spans="1:5">
       <c r="A24" s="8">
         <v>23</v>
       </c>
       <c r="B24" s="9" t="s">
+        <v>69</v>
+      </c>
+      <c r="C24" s="9" t="s">
         <v>70</v>
       </c>
-      <c r="C24" s="9" t="s">
+      <c r="D24" s="9" t="s">
         <v>71</v>
       </c>
-      <c r="D24" s="9" t="s">
-        <v>72</v>
-      </c>
-    </row>
-    <row r="25" spans="1:4">
+      <c r="E24" s="9"/>
+    </row>
+    <row r="25" spans="1:5">
       <c r="A25" s="8">
         <v>24</v>
       </c>
       <c r="B25" s="9" t="s">
+        <v>74</v>
+      </c>
+      <c r="C25" s="9" t="s">
         <v>75</v>
       </c>
-      <c r="C25" s="9" t="s">
+      <c r="D25" s="9" t="s">
         <v>76</v>
       </c>
-      <c r="D25" s="9" t="s">
-        <v>77</v>
-      </c>
-    </row>
-    <row r="26" spans="1:4">
+      <c r="E25" s="9"/>
+    </row>
+    <row r="26" spans="1:5">
       <c r="A26" s="8">
         <v>25</v>
       </c>
       <c r="B26" s="9" t="s">
+        <v>77</v>
+      </c>
+      <c r="C26" s="9" t="s">
         <v>78</v>
       </c>
-      <c r="C26" s="9" t="s">
+      <c r="D26" s="9" t="s">
         <v>79</v>
       </c>
-      <c r="D26" s="9" t="s">
-        <v>80</v>
-      </c>
-    </row>
-    <row r="27" spans="1:4">
+      <c r="E26" s="9"/>
+    </row>
+    <row r="27" spans="1:5">
       <c r="A27" s="8">
         <v>26</v>
       </c>
       <c r="B27" s="10" t="s">
+        <v>81</v>
+      </c>
+      <c r="C27" s="10" t="s">
+        <v>80</v>
+      </c>
+      <c r="D27" s="10" t="s">
         <v>82</v>
       </c>
-      <c r="C27" s="10" t="s">
-        <v>81</v>
-      </c>
-      <c r="D27" s="10" t="s">
-        <v>83</v>
-      </c>
-    </row>
-    <row r="28" spans="1:4">
+      <c r="E27" s="10"/>
+    </row>
+    <row r="28" spans="1:5">
       <c r="A28" s="8">
         <v>27</v>
       </c>
       <c r="B28" s="9" t="s">
+        <v>83</v>
+      </c>
+      <c r="C28" s="9" t="s">
         <v>84</v>
       </c>
-      <c r="C28" s="9" t="s">
+      <c r="D28" s="9" t="s">
         <v>85</v>
       </c>
-      <c r="D28" s="9" t="s">
-        <v>86</v>
-      </c>
-    </row>
-    <row r="29" spans="1:4">
+      <c r="E28" s="9"/>
+    </row>
+    <row r="29" spans="1:5">
       <c r="A29" s="8">
         <v>28</v>
       </c>
       <c r="B29" s="9" t="s">
+        <v>86</v>
+      </c>
+      <c r="C29" s="9" t="s">
+        <v>88</v>
+      </c>
+      <c r="D29" s="9" t="s">
         <v>87</v>
       </c>
-      <c r="C29" s="9" t="s">
-        <v>89</v>
-      </c>
-      <c r="D29" s="9" t="s">
-        <v>88</v>
-      </c>
-    </row>
-    <row r="30" spans="1:4">
+      <c r="E29" s="9"/>
+    </row>
+    <row r="30" spans="1:5">
       <c r="A30" s="8">
         <v>29</v>
       </c>
       <c r="B30" s="9" t="s">
+        <v>89</v>
+      </c>
+      <c r="C30" s="9" t="s">
         <v>90</v>
       </c>
-      <c r="C30" s="9" t="s">
+      <c r="D30" s="9" t="s">
         <v>91</v>
       </c>
-      <c r="D30" s="9" t="s">
-        <v>92</v>
-      </c>
-    </row>
-    <row r="31" spans="1:4">
+      <c r="E30" s="9"/>
+    </row>
+    <row r="31" spans="1:5">
       <c r="A31" s="8">
         <v>30</v>
       </c>
       <c r="B31" s="9" t="s">
+        <v>92</v>
+      </c>
+      <c r="C31" s="9" t="s">
+        <v>94</v>
+      </c>
+      <c r="D31" s="9" t="s">
         <v>93</v>
       </c>
-      <c r="C31" s="9" t="s">
-        <v>95</v>
-      </c>
-      <c r="D31" s="9" t="s">
-        <v>94</v>
-      </c>
-    </row>
-    <row r="32" spans="1:4">
+      <c r="E31" s="9"/>
+    </row>
+    <row r="32" spans="1:5">
       <c r="A32" s="5">
         <v>31</v>
       </c>
       <c r="B32" s="6" t="s">
+        <v>96</v>
+      </c>
+      <c r="C32" s="6" t="s">
+        <v>95</v>
+      </c>
+      <c r="D32" s="6" t="s">
+        <v>136</v>
+      </c>
+      <c r="E32" s="6" t="s">
+        <v>135</v>
+      </c>
+    </row>
+    <row r="33" spans="1:5">
+      <c r="A33" s="5"/>
+      <c r="B33" s="6" t="s">
+        <v>131</v>
+      </c>
+      <c r="C33" s="6" t="s">
+        <v>132</v>
+      </c>
+      <c r="D33" s="6" t="s">
+        <v>133</v>
+      </c>
+      <c r="E33" s="6" t="s">
+        <v>134</v>
+      </c>
+    </row>
+    <row r="34" spans="1:5">
+      <c r="A34" s="5">
+        <v>32</v>
+      </c>
+      <c r="B34" s="6" t="s">
+        <v>97</v>
+      </c>
+      <c r="C34" s="6" t="s">
         <v>98</v>
       </c>
-      <c r="C32" s="6" t="s">
-        <v>96</v>
-      </c>
-      <c r="D32" s="6" t="s">
-        <v>97</v>
-      </c>
-    </row>
-    <row r="33" spans="1:4">
-      <c r="A33" s="5">
-        <v>32</v>
-      </c>
-      <c r="B33" s="6" t="s">
+      <c r="D34" s="6" t="s">
         <v>99</v>
       </c>
-      <c r="C33" s="6" t="s">
+      <c r="E34" s="6"/>
+    </row>
+    <row r="35" spans="1:5">
+      <c r="A35" s="5">
+        <v>33</v>
+      </c>
+      <c r="B35" s="6" t="s">
         <v>100</v>
       </c>
-      <c r="D33" s="6" t="s">
+      <c r="C35" s="6" t="s">
+        <v>102</v>
+      </c>
+      <c r="D35" s="6" t="s">
         <v>101</v>
       </c>
-    </row>
-    <row r="34" spans="1:4">
-      <c r="A34" s="5">
-        <v>33</v>
-      </c>
-      <c r="B34" s="6" t="s">
-        <v>102</v>
-      </c>
-      <c r="C34" s="6" t="s">
+      <c r="E35" s="6"/>
+    </row>
+    <row r="36" spans="1:5">
+      <c r="A36" s="5">
+        <v>34</v>
+      </c>
+      <c r="B36" s="6" t="s">
+        <v>103</v>
+      </c>
+      <c r="C36" s="6" t="s">
         <v>104</v>
       </c>
-      <c r="D34" s="6" t="s">
-        <v>103</v>
-      </c>
-    </row>
-    <row r="35" spans="1:4">
-      <c r="A35" s="5">
-        <v>34</v>
-      </c>
-      <c r="B35" s="6" t="s">
+      <c r="D36" s="6" t="s">
         <v>105</v>
       </c>
-      <c r="C35" s="6" t="s">
+      <c r="E36" s="6"/>
+    </row>
+    <row r="37" spans="1:5">
+      <c r="A37" s="5">
+        <v>35</v>
+      </c>
+      <c r="B37" s="6" t="s">
         <v>106</v>
       </c>
-      <c r="D35" s="6" t="s">
+      <c r="C37" s="6" t="s">
         <v>107</v>
       </c>
-    </row>
-    <row r="36" spans="1:4">
-      <c r="A36" s="5">
-        <v>35</v>
-      </c>
-      <c r="B36" s="6" t="s">
+      <c r="D37" s="6" t="s">
         <v>108</v>
       </c>
-      <c r="C36" s="6" t="s">
-        <v>109</v>
-      </c>
-      <c r="D36" s="6" t="s">
-        <v>110</v>
-      </c>
-    </row>
-    <row r="37" spans="1:4">
-      <c r="A37" s="5">
+      <c r="E37" s="6"/>
+    </row>
+    <row r="38" spans="1:5">
+      <c r="A38" s="5">
         <v>36</v>
       </c>
-      <c r="B37" s="6" t="s">
+      <c r="B38" s="6" t="s">
+        <v>120</v>
+      </c>
+      <c r="C38" s="6" t="s">
         <v>122</v>
       </c>
-      <c r="C37" s="6" t="s">
-        <v>122</v>
-      </c>
-      <c r="D37" s="6" t="s">
-        <v>122</v>
-      </c>
-    </row>
-    <row r="38" spans="1:4">
-      <c r="A38" s="5">
+      <c r="D38" s="6" t="s">
+        <v>121</v>
+      </c>
+      <c r="E38" s="6"/>
+    </row>
+    <row r="39" spans="1:5">
+      <c r="A39" s="5">
         <v>37</v>
       </c>
-      <c r="B38" s="6"/>
-      <c r="C38" s="6"/>
-      <c r="D38" s="6"/>
-    </row>
-    <row r="39" spans="1:4">
-      <c r="A39" s="5">
+      <c r="B39" s="6" t="s">
+        <v>150</v>
+      </c>
+      <c r="C39" s="6" t="s">
+        <v>151</v>
+      </c>
+      <c r="D39" s="6" t="s">
+        <v>152</v>
+      </c>
+      <c r="E39" s="6"/>
+    </row>
+    <row r="40" spans="1:5">
+      <c r="A40" s="5">
         <v>38</v>
       </c>
-      <c r="B39" s="6"/>
-      <c r="C39" s="6"/>
-      <c r="D39" s="6"/>
-    </row>
-    <row r="40" spans="1:4">
-      <c r="A40" s="5">
+      <c r="B40" s="6" t="s">
+        <v>153</v>
+      </c>
+      <c r="C40" s="6" t="s">
+        <v>154</v>
+      </c>
+      <c r="D40" s="6" t="s">
+        <v>155</v>
+      </c>
+      <c r="E40" s="6"/>
+    </row>
+    <row r="41" spans="1:5">
+      <c r="A41" s="5">
         <v>39</v>
       </c>
-      <c r="B40" s="6"/>
-      <c r="C40" s="6"/>
-      <c r="D40" s="6"/>
-    </row>
-    <row r="41" spans="1:4">
-      <c r="A41" s="5">
+      <c r="B41" s="6" t="s">
+        <v>156</v>
+      </c>
+      <c r="C41" s="6" t="s">
+        <v>157</v>
+      </c>
+      <c r="D41" s="6" t="s">
+        <v>158</v>
+      </c>
+      <c r="E41" s="6"/>
+    </row>
+    <row r="42" spans="1:5">
+      <c r="A42" s="5">
         <v>40</v>
       </c>
-      <c r="B41" s="6"/>
-      <c r="C41" s="6"/>
-      <c r="D41" s="7"/>
-    </row>
-    <row r="42" spans="1:4">
-      <c r="A42" s="8">
+      <c r="B42" s="6" t="s">
+        <v>159</v>
+      </c>
+      <c r="C42" s="6" t="s">
+        <v>160</v>
+      </c>
+      <c r="D42" s="7" t="s">
+        <v>161</v>
+      </c>
+      <c r="E42" s="7"/>
+    </row>
+    <row r="43" spans="1:5">
+      <c r="A43" s="8">
         <v>41</v>
-      </c>
-      <c r="B42" s="9"/>
-      <c r="C42" s="9"/>
-      <c r="D42" s="9"/>
-    </row>
-    <row r="43" spans="1:4">
-      <c r="A43" s="8">
-        <v>42</v>
       </c>
       <c r="B43" s="9"/>
       <c r="C43" s="9"/>
       <c r="D43" s="9"/>
-    </row>
-    <row r="44" spans="1:4">
+      <c r="E43" s="9"/>
+    </row>
+    <row r="44" spans="1:5">
       <c r="A44" s="8">
-        <v>43</v>
+        <v>42</v>
       </c>
       <c r="B44" s="9"/>
       <c r="C44" s="9"/>
       <c r="D44" s="9"/>
-    </row>
-    <row r="45" spans="1:4">
+      <c r="E44" s="9"/>
+    </row>
+    <row r="45" spans="1:5">
       <c r="A45" s="8">
-        <v>44</v>
+        <v>43</v>
       </c>
       <c r="B45" s="9"/>
       <c r="C45" s="9"/>
       <c r="D45" s="9"/>
-    </row>
-    <row r="46" spans="1:4">
+      <c r="E45" s="9"/>
+    </row>
+    <row r="46" spans="1:5">
       <c r="A46" s="8">
-        <v>45</v>
+        <v>44</v>
       </c>
       <c r="B46" s="9"/>
       <c r="C46" s="9"/>
       <c r="D46" s="9"/>
-    </row>
-    <row r="47" spans="1:4">
+      <c r="E46" s="9"/>
+    </row>
+    <row r="47" spans="1:5">
       <c r="A47" s="8">
+        <v>45</v>
+      </c>
+      <c r="B47" s="9"/>
+      <c r="C47" s="9"/>
+      <c r="D47" s="9"/>
+      <c r="E47" s="9"/>
+    </row>
+    <row r="48" spans="1:5">
+      <c r="A48" s="8">
         <v>46</v>
       </c>
-      <c r="B47" s="10"/>
-      <c r="C47" s="10"/>
-      <c r="D47" s="10"/>
-    </row>
-    <row r="48" spans="1:4">
-      <c r="A48" s="8">
+      <c r="B48" s="10"/>
+      <c r="C48" s="10"/>
+      <c r="D48" s="10"/>
+      <c r="E48" s="10"/>
+    </row>
+    <row r="49" spans="1:5">
+      <c r="A49" s="8">
         <v>47</v>
-      </c>
-      <c r="B48" s="9"/>
-      <c r="C48" s="9"/>
-      <c r="D48" s="9"/>
-    </row>
-    <row r="49" spans="1:4">
-      <c r="A49" s="8">
-        <v>48</v>
       </c>
       <c r="B49" s="9"/>
       <c r="C49" s="9"/>
       <c r="D49" s="9"/>
-    </row>
-    <row r="50" spans="1:4">
+      <c r="E49" s="9"/>
+    </row>
+    <row r="50" spans="1:5">
       <c r="A50" s="8">
-        <v>49</v>
+        <v>48</v>
       </c>
       <c r="B50" s="9"/>
       <c r="C50" s="9"/>
       <c r="D50" s="9"/>
-    </row>
-    <row r="51" spans="1:4">
+      <c r="E50" s="9"/>
+    </row>
+    <row r="51" spans="1:5">
       <c r="A51" s="8">
-        <v>50</v>
+        <v>49</v>
       </c>
       <c r="B51" s="9"/>
       <c r="C51" s="9"/>
       <c r="D51" s="9"/>
-    </row>
-    <row r="52" spans="1:4">
-      <c r="A52" s="5">
+      <c r="E51" s="9"/>
+    </row>
+    <row r="52" spans="1:5">
+      <c r="A52" s="8">
+        <v>50</v>
+      </c>
+      <c r="B52" s="9"/>
+      <c r="C52" s="9"/>
+      <c r="D52" s="9"/>
+      <c r="E52" s="9"/>
+    </row>
+    <row r="53" spans="1:5">
+      <c r="A53" s="5">
         <v>51</v>
-      </c>
-      <c r="B52" s="6"/>
-      <c r="C52" s="6"/>
-      <c r="D52" s="6"/>
-    </row>
-    <row r="53" spans="1:4">
-      <c r="A53" s="5">
-        <v>52</v>
       </c>
       <c r="B53" s="6"/>
       <c r="C53" s="6"/>
       <c r="D53" s="6"/>
-    </row>
-    <row r="54" spans="1:4">
+      <c r="E53" s="6"/>
+    </row>
+    <row r="54" spans="1:5">
       <c r="A54" s="5">
-        <v>53</v>
+        <v>52</v>
       </c>
       <c r="B54" s="6"/>
       <c r="C54" s="6"/>
       <c r="D54" s="6"/>
-    </row>
-    <row r="55" spans="1:4">
+      <c r="E54" s="6"/>
+    </row>
+    <row r="55" spans="1:5">
       <c r="A55" s="5">
-        <v>54</v>
+        <v>53</v>
       </c>
       <c r="B55" s="6"/>
       <c r="C55" s="6"/>
       <c r="D55" s="6"/>
-    </row>
-    <row r="56" spans="1:4">
+      <c r="E55" s="6"/>
+    </row>
+    <row r="56" spans="1:5">
       <c r="A56" s="5">
-        <v>55</v>
+        <v>54</v>
       </c>
       <c r="B56" s="6"/>
       <c r="C56" s="6"/>
       <c r="D56" s="6"/>
-    </row>
-    <row r="57" spans="1:4">
+      <c r="E56" s="6"/>
+    </row>
+    <row r="57" spans="1:5">
       <c r="A57" s="5">
-        <v>56</v>
+        <v>55</v>
       </c>
       <c r="B57" s="6"/>
       <c r="C57" s="6"/>
       <c r="D57" s="6"/>
-    </row>
-    <row r="58" spans="1:4">
+      <c r="E57" s="6"/>
+    </row>
+    <row r="58" spans="1:5">
       <c r="A58" s="5">
-        <v>57</v>
+        <v>56</v>
       </c>
       <c r="B58" s="6"/>
       <c r="C58" s="6"/>
       <c r="D58" s="6"/>
-    </row>
-    <row r="59" spans="1:4">
+      <c r="E58" s="6"/>
+    </row>
+    <row r="59" spans="1:5">
       <c r="A59" s="5">
-        <v>58</v>
+        <v>57</v>
       </c>
       <c r="B59" s="6"/>
       <c r="C59" s="6"/>
       <c r="D59" s="6"/>
-    </row>
-    <row r="60" spans="1:4">
+      <c r="E59" s="6"/>
+    </row>
+    <row r="60" spans="1:5">
       <c r="A60" s="5">
-        <v>59</v>
+        <v>58</v>
       </c>
       <c r="B60" s="6"/>
       <c r="C60" s="6"/>
       <c r="D60" s="6"/>
-    </row>
-    <row r="61" spans="1:4">
+      <c r="E60" s="6"/>
+    </row>
+    <row r="61" spans="1:5">
       <c r="A61" s="5">
-        <v>60</v>
+        <v>59</v>
       </c>
       <c r="B61" s="6"/>
       <c r="C61" s="6"/>
-      <c r="D61" s="7"/>
-    </row>
-    <row r="62" spans="1:4">
-      <c r="A62" s="8">
+      <c r="D61" s="6"/>
+      <c r="E61" s="6"/>
+    </row>
+    <row r="62" spans="1:5">
+      <c r="A62" s="5">
+        <v>60</v>
+      </c>
+      <c r="B62" s="6"/>
+      <c r="C62" s="6"/>
+      <c r="D62" s="7"/>
+      <c r="E62" s="7"/>
+    </row>
+    <row r="63" spans="1:5">
+      <c r="A63" s="8">
         <v>61</v>
-      </c>
-      <c r="B62" s="9"/>
-      <c r="C62" s="9"/>
-      <c r="D62" s="9"/>
-    </row>
-    <row r="63" spans="1:4">
-      <c r="A63" s="8">
-        <v>62</v>
       </c>
       <c r="B63" s="9"/>
       <c r="C63" s="9"/>
       <c r="D63" s="9"/>
-    </row>
-    <row r="64" spans="1:4">
+      <c r="E63" s="9"/>
+    </row>
+    <row r="64" spans="1:5">
       <c r="A64" s="8">
-        <v>63</v>
+        <v>62</v>
       </c>
       <c r="B64" s="9"/>
       <c r="C64" s="9"/>
       <c r="D64" s="9"/>
-    </row>
-    <row r="65" spans="1:4">
+      <c r="E64" s="9"/>
+    </row>
+    <row r="65" spans="1:5">
       <c r="A65" s="8">
-        <v>64</v>
+        <v>63</v>
       </c>
       <c r="B65" s="9"/>
       <c r="C65" s="9"/>
       <c r="D65" s="9"/>
-    </row>
-    <row r="66" spans="1:4">
+      <c r="E65" s="9"/>
+    </row>
+    <row r="66" spans="1:5">
       <c r="A66" s="8">
-        <v>65</v>
+        <v>64</v>
       </c>
       <c r="B66" s="9"/>
       <c r="C66" s="9"/>
       <c r="D66" s="9"/>
-    </row>
-    <row r="67" spans="1:4">
+      <c r="E66" s="9"/>
+    </row>
+    <row r="67" spans="1:5">
       <c r="A67" s="8">
+        <v>65</v>
+      </c>
+      <c r="B67" s="9"/>
+      <c r="C67" s="9"/>
+      <c r="D67" s="9"/>
+      <c r="E67" s="9"/>
+    </row>
+    <row r="68" spans="1:5">
+      <c r="A68" s="8">
         <v>66</v>
       </c>
-      <c r="B67" s="10"/>
-      <c r="C67" s="10"/>
-      <c r="D67" s="10"/>
-    </row>
-    <row r="68" spans="1:4">
-      <c r="A68" s="8">
+      <c r="B68" s="10"/>
+      <c r="C68" s="10"/>
+      <c r="D68" s="10"/>
+      <c r="E68" s="10"/>
+    </row>
+    <row r="69" spans="1:5">
+      <c r="A69" s="8">
         <v>67</v>
-      </c>
-      <c r="B68" s="9"/>
-      <c r="C68" s="9"/>
-      <c r="D68" s="9"/>
-    </row>
-    <row r="69" spans="1:4">
-      <c r="A69" s="8">
-        <v>68</v>
       </c>
       <c r="B69" s="9"/>
       <c r="C69" s="9"/>
       <c r="D69" s="9"/>
-    </row>
-    <row r="70" spans="1:4">
+      <c r="E69" s="9"/>
+    </row>
+    <row r="70" spans="1:5">
       <c r="A70" s="8">
-        <v>69</v>
+        <v>68</v>
       </c>
       <c r="B70" s="9"/>
       <c r="C70" s="9"/>
       <c r="D70" s="9"/>
-    </row>
-    <row r="71" spans="1:4">
+      <c r="E70" s="9"/>
+    </row>
+    <row r="71" spans="1:5">
       <c r="A71" s="8">
-        <v>70</v>
+        <v>69</v>
       </c>
       <c r="B71" s="9"/>
       <c r="C71" s="9"/>
       <c r="D71" s="9"/>
-    </row>
-    <row r="72" spans="1:4">
-      <c r="A72" s="5">
+      <c r="E71" s="9"/>
+    </row>
+    <row r="72" spans="1:5">
+      <c r="A72" s="8">
+        <v>70</v>
+      </c>
+      <c r="B72" s="9"/>
+      <c r="C72" s="9"/>
+      <c r="D72" s="9"/>
+      <c r="E72" s="9"/>
+    </row>
+    <row r="73" spans="1:5">
+      <c r="A73" s="5">
         <v>71</v>
-      </c>
-      <c r="B72" s="6"/>
-      <c r="C72" s="6"/>
-      <c r="D72" s="6"/>
-    </row>
-    <row r="73" spans="1:4">
-      <c r="A73" s="5">
-        <v>72</v>
       </c>
       <c r="B73" s="6"/>
       <c r="C73" s="6"/>
       <c r="D73" s="6"/>
-    </row>
-    <row r="74" spans="1:4">
+      <c r="E73" s="6"/>
+    </row>
+    <row r="74" spans="1:5">
       <c r="A74" s="5">
-        <v>73</v>
+        <v>72</v>
       </c>
       <c r="B74" s="6"/>
       <c r="C74" s="6"/>
       <c r="D74" s="6"/>
-    </row>
-    <row r="75" spans="1:4">
+      <c r="E74" s="6"/>
+    </row>
+    <row r="75" spans="1:5">
       <c r="A75" s="5">
-        <v>74</v>
+        <v>73</v>
       </c>
       <c r="B75" s="6"/>
       <c r="C75" s="6"/>
       <c r="D75" s="6"/>
-    </row>
-    <row r="76" spans="1:4">
+      <c r="E75" s="6"/>
+    </row>
+    <row r="76" spans="1:5">
       <c r="A76" s="5">
-        <v>75</v>
+        <v>74</v>
       </c>
       <c r="B76" s="6"/>
       <c r="C76" s="6"/>
       <c r="D76" s="6"/>
-    </row>
-    <row r="77" spans="1:4">
+      <c r="E76" s="6"/>
+    </row>
+    <row r="77" spans="1:5">
       <c r="A77" s="5">
-        <v>76</v>
+        <v>75</v>
       </c>
       <c r="B77" s="6"/>
       <c r="C77" s="6"/>
       <c r="D77" s="6"/>
-    </row>
-    <row r="78" spans="1:4">
+      <c r="E77" s="6"/>
+    </row>
+    <row r="78" spans="1:5">
       <c r="A78" s="5">
-        <v>77</v>
+        <v>76</v>
       </c>
       <c r="B78" s="6"/>
       <c r="C78" s="6"/>
       <c r="D78" s="6"/>
-    </row>
-    <row r="79" spans="1:4">
+      <c r="E78" s="6"/>
+    </row>
+    <row r="79" spans="1:5">
       <c r="A79" s="5">
-        <v>78</v>
+        <v>77</v>
       </c>
       <c r="B79" s="6"/>
       <c r="C79" s="6"/>
       <c r="D79" s="6"/>
-    </row>
-    <row r="80" spans="1:4">
+      <c r="E79" s="6"/>
+    </row>
+    <row r="80" spans="1:5">
       <c r="A80" s="5">
-        <v>79</v>
+        <v>78</v>
       </c>
       <c r="B80" s="6"/>
       <c r="C80" s="6"/>
       <c r="D80" s="6"/>
-    </row>
-    <row r="81" spans="1:4">
+      <c r="E80" s="6"/>
+    </row>
+    <row r="81" spans="1:5">
       <c r="A81" s="5">
-        <v>80</v>
+        <v>79</v>
       </c>
       <c r="B81" s="6"/>
       <c r="C81" s="6"/>
-      <c r="D81" s="7"/>
-    </row>
-    <row r="82" spans="1:4">
-      <c r="A82" s="8">
+      <c r="D81" s="6"/>
+      <c r="E81" s="6"/>
+    </row>
+    <row r="82" spans="1:5">
+      <c r="A82" s="5">
+        <v>80</v>
+      </c>
+      <c r="B82" s="6"/>
+      <c r="C82" s="6"/>
+      <c r="D82" s="7"/>
+      <c r="E82" s="7"/>
+    </row>
+    <row r="83" spans="1:5">
+      <c r="A83" s="8">
         <v>81</v>
-      </c>
-      <c r="B82" s="9"/>
-      <c r="C82" s="9"/>
-      <c r="D82" s="9"/>
-    </row>
-    <row r="83" spans="1:4">
-      <c r="A83" s="8">
-        <v>82</v>
       </c>
       <c r="B83" s="9"/>
       <c r="C83" s="9"/>
       <c r="D83" s="9"/>
-    </row>
-    <row r="84" spans="1:4">
+      <c r="E83" s="9"/>
+    </row>
+    <row r="84" spans="1:5">
       <c r="A84" s="8">
-        <v>83</v>
+        <v>82</v>
       </c>
       <c r="B84" s="9"/>
       <c r="C84" s="9"/>
       <c r="D84" s="9"/>
-    </row>
-    <row r="85" spans="1:4">
+      <c r="E84" s="9"/>
+    </row>
+    <row r="85" spans="1:5">
       <c r="A85" s="8">
-        <v>84</v>
+        <v>83</v>
       </c>
       <c r="B85" s="9"/>
       <c r="C85" s="9"/>
       <c r="D85" s="9"/>
-    </row>
-    <row r="86" spans="1:4">
+      <c r="E85" s="9"/>
+    </row>
+    <row r="86" spans="1:5">
       <c r="A86" s="8">
-        <v>85</v>
+        <v>84</v>
       </c>
       <c r="B86" s="9"/>
       <c r="C86" s="9"/>
       <c r="D86" s="9"/>
-    </row>
-    <row r="87" spans="1:4">
+      <c r="E86" s="9"/>
+    </row>
+    <row r="87" spans="1:5">
       <c r="A87" s="8">
+        <v>85</v>
+      </c>
+      <c r="B87" s="9"/>
+      <c r="C87" s="9"/>
+      <c r="D87" s="9"/>
+      <c r="E87" s="9"/>
+    </row>
+    <row r="88" spans="1:5">
+      <c r="A88" s="8">
         <v>86</v>
       </c>
-      <c r="B87" s="10"/>
-      <c r="C87" s="10"/>
-      <c r="D87" s="10"/>
-    </row>
-    <row r="88" spans="1:4">
-      <c r="A88" s="8">
+      <c r="B88" s="10"/>
+      <c r="C88" s="10"/>
+      <c r="D88" s="10"/>
+      <c r="E88" s="10"/>
+    </row>
+    <row r="89" spans="1:5">
+      <c r="A89" s="8">
         <v>87</v>
-      </c>
-      <c r="B88" s="9"/>
-      <c r="C88" s="9"/>
-      <c r="D88" s="9"/>
-    </row>
-    <row r="89" spans="1:4">
-      <c r="A89" s="8">
-        <v>88</v>
       </c>
       <c r="B89" s="9"/>
       <c r="C89" s="9"/>
       <c r="D89" s="9"/>
-    </row>
-    <row r="90" spans="1:4">
+      <c r="E89" s="9"/>
+    </row>
+    <row r="90" spans="1:5">
       <c r="A90" s="8">
-        <v>89</v>
+        <v>88</v>
       </c>
       <c r="B90" s="9"/>
       <c r="C90" s="9"/>
       <c r="D90" s="9"/>
-    </row>
-    <row r="91" spans="1:4">
+      <c r="E90" s="9"/>
+    </row>
+    <row r="91" spans="1:5">
       <c r="A91" s="8">
-        <v>90</v>
+        <v>89</v>
       </c>
       <c r="B91" s="9"/>
       <c r="C91" s="9"/>
       <c r="D91" s="9"/>
-    </row>
-    <row r="92" spans="1:4">
-      <c r="A92" s="5">
+      <c r="E91" s="9"/>
+    </row>
+    <row r="92" spans="1:5">
+      <c r="A92" s="8">
+        <v>90</v>
+      </c>
+      <c r="B92" s="9"/>
+      <c r="C92" s="9"/>
+      <c r="D92" s="9"/>
+      <c r="E92" s="9"/>
+    </row>
+    <row r="93" spans="1:5">
+      <c r="A93" s="5">
         <v>91</v>
-      </c>
-      <c r="B92" s="6"/>
-      <c r="C92" s="6"/>
-      <c r="D92" s="6"/>
-    </row>
-    <row r="93" spans="1:4">
-      <c r="A93" s="5">
-        <v>92</v>
       </c>
       <c r="B93" s="6"/>
       <c r="C93" s="6"/>
       <c r="D93" s="6"/>
-    </row>
-    <row r="94" spans="1:4">
+      <c r="E93" s="6"/>
+    </row>
+    <row r="94" spans="1:5">
       <c r="A94" s="5">
-        <v>93</v>
+        <v>92</v>
       </c>
       <c r="B94" s="6"/>
       <c r="C94" s="6"/>
       <c r="D94" s="6"/>
-    </row>
-    <row r="95" spans="1:4">
+      <c r="E94" s="6"/>
+    </row>
+    <row r="95" spans="1:5">
       <c r="A95" s="5">
-        <v>94</v>
+        <v>93</v>
       </c>
       <c r="B95" s="6"/>
       <c r="C95" s="6"/>
       <c r="D95" s="6"/>
-    </row>
-    <row r="96" spans="1:4">
+      <c r="E95" s="6"/>
+    </row>
+    <row r="96" spans="1:5">
       <c r="A96" s="5">
-        <v>95</v>
+        <v>94</v>
       </c>
       <c r="B96" s="6"/>
       <c r="C96" s="6"/>
       <c r="D96" s="6"/>
-    </row>
-    <row r="97" spans="1:4">
+      <c r="E96" s="6"/>
+    </row>
+    <row r="97" spans="1:5">
       <c r="A97" s="5">
-        <v>96</v>
+        <v>95</v>
       </c>
       <c r="B97" s="6"/>
       <c r="C97" s="6"/>
       <c r="D97" s="6"/>
-    </row>
-    <row r="98" spans="1:4">
+      <c r="E97" s="6"/>
+    </row>
+    <row r="98" spans="1:5">
       <c r="A98" s="5">
-        <v>97</v>
+        <v>96</v>
       </c>
       <c r="B98" s="6"/>
       <c r="C98" s="6"/>
       <c r="D98" s="6"/>
-    </row>
-    <row r="99" spans="1:4">
+      <c r="E98" s="6"/>
+    </row>
+    <row r="99" spans="1:5">
       <c r="A99" s="5">
-        <v>98</v>
+        <v>97</v>
       </c>
       <c r="B99" s="6"/>
       <c r="C99" s="6"/>
       <c r="D99" s="6"/>
-    </row>
-    <row r="100" spans="1:4">
+      <c r="E99" s="6"/>
+    </row>
+    <row r="100" spans="1:5">
       <c r="A100" s="5">
-        <v>99</v>
+        <v>98</v>
       </c>
       <c r="B100" s="6"/>
       <c r="C100" s="6"/>
       <c r="D100" s="6"/>
-    </row>
-    <row r="101" spans="1:4">
+      <c r="E100" s="6"/>
+    </row>
+    <row r="101" spans="1:5">
       <c r="A101" s="5">
-        <v>100</v>
+        <v>99</v>
       </c>
       <c r="B101" s="6"/>
       <c r="C101" s="6"/>
-      <c r="D101" s="7"/>
-    </row>
-    <row r="102" spans="1:4">
-      <c r="A102" s="8">
+      <c r="D101" s="6"/>
+      <c r="E101" s="6"/>
+    </row>
+    <row r="102" spans="1:5">
+      <c r="A102" s="5">
+        <v>100</v>
+      </c>
+      <c r="B102" s="6"/>
+      <c r="C102" s="6"/>
+      <c r="D102" s="7"/>
+      <c r="E102" s="7"/>
+    </row>
+    <row r="103" spans="1:5">
+      <c r="A103" s="8">
         <v>101</v>
-      </c>
-      <c r="B102" s="9"/>
-      <c r="C102" s="9"/>
-      <c r="D102" s="9"/>
-    </row>
-    <row r="103" spans="1:4">
-      <c r="A103" s="8">
-        <v>102</v>
       </c>
       <c r="B103" s="9"/>
       <c r="C103" s="9"/>
       <c r="D103" s="9"/>
-    </row>
-    <row r="104" spans="1:4">
+      <c r="E103" s="9"/>
+    </row>
+    <row r="104" spans="1:5">
       <c r="A104" s="8">
-        <v>103</v>
+        <v>102</v>
       </c>
       <c r="B104" s="9"/>
       <c r="C104" s="9"/>
       <c r="D104" s="9"/>
-    </row>
-    <row r="105" spans="1:4">
+      <c r="E104" s="9"/>
+    </row>
+    <row r="105" spans="1:5">
       <c r="A105" s="8">
-        <v>104</v>
+        <v>103</v>
       </c>
       <c r="B105" s="9"/>
       <c r="C105" s="9"/>
       <c r="D105" s="9"/>
-    </row>
-    <row r="106" spans="1:4">
+      <c r="E105" s="9"/>
+    </row>
+    <row r="106" spans="1:5">
       <c r="A106" s="8">
-        <v>105</v>
+        <v>104</v>
       </c>
       <c r="B106" s="9"/>
       <c r="C106" s="9"/>
       <c r="D106" s="9"/>
-    </row>
-    <row r="107" spans="1:4">
+      <c r="E106" s="9"/>
+    </row>
+    <row r="107" spans="1:5">
       <c r="A107" s="8">
+        <v>105</v>
+      </c>
+      <c r="B107" s="9"/>
+      <c r="C107" s="9"/>
+      <c r="D107" s="9"/>
+      <c r="E107" s="9"/>
+    </row>
+    <row r="108" spans="1:5">
+      <c r="A108" s="8">
         <v>106</v>
       </c>
-      <c r="B107" s="10"/>
-      <c r="C107" s="10"/>
-      <c r="D107" s="10"/>
-    </row>
-    <row r="108" spans="1:4">
-      <c r="A108" s="8">
+      <c r="B108" s="10"/>
+      <c r="C108" s="10"/>
+      <c r="D108" s="10"/>
+      <c r="E108" s="10"/>
+    </row>
+    <row r="109" spans="1:5">
+      <c r="A109" s="8">
         <v>107</v>
-      </c>
-      <c r="B108" s="9"/>
-      <c r="C108" s="9"/>
-      <c r="D108" s="9"/>
-    </row>
-    <row r="109" spans="1:4">
-      <c r="A109" s="8">
-        <v>108</v>
       </c>
       <c r="B109" s="9"/>
       <c r="C109" s="9"/>
       <c r="D109" s="9"/>
-    </row>
-    <row r="110" spans="1:4">
+      <c r="E109" s="9"/>
+    </row>
+    <row r="110" spans="1:5">
       <c r="A110" s="8">
-        <v>109</v>
+        <v>108</v>
       </c>
       <c r="B110" s="9"/>
       <c r="C110" s="9"/>
       <c r="D110" s="9"/>
-    </row>
-    <row r="111" spans="1:4">
+      <c r="E110" s="9"/>
+    </row>
+    <row r="111" spans="1:5">
       <c r="A111" s="8">
-        <v>110</v>
+        <v>109</v>
       </c>
       <c r="B111" s="9"/>
       <c r="C111" s="9"/>
       <c r="D111" s="9"/>
-    </row>
-    <row r="112" spans="1:4">
-      <c r="A112" s="5">
+      <c r="E111" s="9"/>
+    </row>
+    <row r="112" spans="1:5">
+      <c r="A112" s="8">
+        <v>110</v>
+      </c>
+      <c r="B112" s="9"/>
+      <c r="C112" s="9"/>
+      <c r="D112" s="9"/>
+      <c r="E112" s="9"/>
+    </row>
+    <row r="113" spans="1:5">
+      <c r="A113" s="5">
         <v>111</v>
-      </c>
-      <c r="B112" s="6"/>
-      <c r="C112" s="6"/>
-      <c r="D112" s="6"/>
-    </row>
-    <row r="113" spans="1:4">
-      <c r="A113" s="5">
-        <v>112</v>
       </c>
       <c r="B113" s="6"/>
       <c r="C113" s="6"/>
       <c r="D113" s="6"/>
-    </row>
-    <row r="114" spans="1:4">
+      <c r="E113" s="6"/>
+    </row>
+    <row r="114" spans="1:5">
       <c r="A114" s="5">
-        <v>113</v>
+        <v>112</v>
       </c>
       <c r="B114" s="6"/>
       <c r="C114" s="6"/>
       <c r="D114" s="6"/>
-    </row>
-    <row r="115" spans="1:4">
+      <c r="E114" s="6"/>
+    </row>
+    <row r="115" spans="1:5">
       <c r="A115" s="5">
-        <v>114</v>
+        <v>113</v>
       </c>
       <c r="B115" s="6"/>
       <c r="C115" s="6"/>
       <c r="D115" s="6"/>
-    </row>
-    <row r="116" spans="1:4">
+      <c r="E115" s="6"/>
+    </row>
+    <row r="116" spans="1:5">
       <c r="A116" s="5">
-        <v>115</v>
+        <v>114</v>
       </c>
       <c r="B116" s="6"/>
       <c r="C116" s="6"/>
       <c r="D116" s="6"/>
-    </row>
-    <row r="117" spans="1:4">
+      <c r="E116" s="6"/>
+    </row>
+    <row r="117" spans="1:5">
       <c r="A117" s="5">
-        <v>116</v>
+        <v>115</v>
       </c>
       <c r="B117" s="6"/>
       <c r="C117" s="6"/>
       <c r="D117" s="6"/>
-    </row>
-    <row r="118" spans="1:4">
+      <c r="E117" s="6"/>
+    </row>
+    <row r="118" spans="1:5">
       <c r="A118" s="5">
-        <v>117</v>
+        <v>116</v>
       </c>
       <c r="B118" s="6"/>
       <c r="C118" s="6"/>
       <c r="D118" s="6"/>
-    </row>
-    <row r="119" spans="1:4">
+      <c r="E118" s="6"/>
+    </row>
+    <row r="119" spans="1:5">
       <c r="A119" s="5">
-        <v>118</v>
+        <v>117</v>
       </c>
       <c r="B119" s="6"/>
       <c r="C119" s="6"/>
       <c r="D119" s="6"/>
-    </row>
-    <row r="120" spans="1:4">
+      <c r="E119" s="6"/>
+    </row>
+    <row r="120" spans="1:5">
       <c r="A120" s="5">
-        <v>119</v>
+        <v>118</v>
       </c>
       <c r="B120" s="6"/>
       <c r="C120" s="6"/>
       <c r="D120" s="6"/>
-    </row>
-    <row r="121" spans="1:4">
+      <c r="E120" s="6"/>
+    </row>
+    <row r="121" spans="1:5">
       <c r="A121" s="5">
-        <v>120</v>
+        <v>119</v>
       </c>
       <c r="B121" s="6"/>
       <c r="C121" s="6"/>
-      <c r="D121" s="7"/>
-    </row>
-    <row r="122" spans="1:4">
-      <c r="A122" s="8">
+      <c r="D121" s="6"/>
+      <c r="E121" s="6"/>
+    </row>
+    <row r="122" spans="1:5">
+      <c r="A122" s="5">
+        <v>120</v>
+      </c>
+      <c r="B122" s="6"/>
+      <c r="C122" s="6"/>
+      <c r="D122" s="7"/>
+      <c r="E122" s="7"/>
+    </row>
+    <row r="123" spans="1:5">
+      <c r="A123" s="8">
         <v>121</v>
-      </c>
-      <c r="B122" s="9"/>
-      <c r="C122" s="9"/>
-      <c r="D122" s="9"/>
-    </row>
-    <row r="123" spans="1:4">
-      <c r="A123" s="8">
-        <v>122</v>
       </c>
       <c r="B123" s="9"/>
       <c r="C123" s="9"/>
       <c r="D123" s="9"/>
-    </row>
-    <row r="124" spans="1:4">
+      <c r="E123" s="9"/>
+    </row>
+    <row r="124" spans="1:5">
       <c r="A124" s="8">
-        <v>123</v>
+        <v>122</v>
       </c>
       <c r="B124" s="9"/>
       <c r="C124" s="9"/>
       <c r="D124" s="9"/>
-    </row>
-    <row r="125" spans="1:4">
+      <c r="E124" s="9"/>
+    </row>
+    <row r="125" spans="1:5">
       <c r="A125" s="8">
-        <v>124</v>
+        <v>123</v>
       </c>
       <c r="B125" s="9"/>
       <c r="C125" s="9"/>
       <c r="D125" s="9"/>
-    </row>
-    <row r="126" spans="1:4">
+      <c r="E125" s="9"/>
+    </row>
+    <row r="126" spans="1:5">
       <c r="A126" s="8">
-        <v>125</v>
+        <v>124</v>
       </c>
       <c r="B126" s="9"/>
       <c r="C126" s="9"/>
       <c r="D126" s="9"/>
-    </row>
-    <row r="127" spans="1:4">
+      <c r="E126" s="9"/>
+    </row>
+    <row r="127" spans="1:5">
       <c r="A127" s="8">
+        <v>125</v>
+      </c>
+      <c r="B127" s="9"/>
+      <c r="C127" s="9"/>
+      <c r="D127" s="9"/>
+      <c r="E127" s="9"/>
+    </row>
+    <row r="128" spans="1:5">
+      <c r="A128" s="8">
         <v>126</v>
       </c>
-      <c r="B127" s="10"/>
-      <c r="C127" s="10"/>
-      <c r="D127" s="10"/>
-    </row>
-    <row r="128" spans="1:4">
-      <c r="A128" s="8">
+      <c r="B128" s="10"/>
+      <c r="C128" s="10"/>
+      <c r="D128" s="10"/>
+      <c r="E128" s="10"/>
+    </row>
+    <row r="129" spans="1:5">
+      <c r="A129" s="8">
         <v>127</v>
-      </c>
-      <c r="B128" s="9"/>
-      <c r="C128" s="9"/>
-      <c r="D128" s="9"/>
-    </row>
-    <row r="129" spans="1:4">
-      <c r="A129" s="8">
-        <v>128</v>
       </c>
       <c r="B129" s="9"/>
       <c r="C129" s="9"/>
       <c r="D129" s="9"/>
-    </row>
-    <row r="130" spans="1:4">
+      <c r="E129" s="9"/>
+    </row>
+    <row r="130" spans="1:5">
       <c r="A130" s="8">
-        <v>129</v>
+        <v>128</v>
       </c>
       <c r="B130" s="9"/>
       <c r="C130" s="9"/>
       <c r="D130" s="9"/>
-    </row>
-    <row r="131" spans="1:4">
+      <c r="E130" s="9"/>
+    </row>
+    <row r="131" spans="1:5">
       <c r="A131" s="8">
-        <v>130</v>
+        <v>129</v>
       </c>
       <c r="B131" s="9"/>
       <c r="C131" s="9"/>
       <c r="D131" s="9"/>
-    </row>
-    <row r="132" spans="1:4">
-      <c r="A132" s="5">
+      <c r="E131" s="9"/>
+    </row>
+    <row r="132" spans="1:5">
+      <c r="A132" s="8">
+        <v>130</v>
+      </c>
+      <c r="B132" s="9"/>
+      <c r="C132" s="9"/>
+      <c r="D132" s="9"/>
+      <c r="E132" s="9"/>
+    </row>
+    <row r="133" spans="1:5">
+      <c r="A133" s="5">
         <v>131</v>
-      </c>
-      <c r="B132" s="6"/>
-      <c r="C132" s="6"/>
-      <c r="D132" s="6"/>
-    </row>
-    <row r="133" spans="1:4">
-      <c r="A133" s="5">
-        <v>132</v>
       </c>
       <c r="B133" s="6"/>
       <c r="C133" s="6"/>
       <c r="D133" s="6"/>
-    </row>
-    <row r="134" spans="1:4">
+      <c r="E133" s="6"/>
+    </row>
+    <row r="134" spans="1:5">
       <c r="A134" s="5">
-        <v>133</v>
+        <v>132</v>
       </c>
       <c r="B134" s="6"/>
       <c r="C134" s="6"/>
       <c r="D134" s="6"/>
-    </row>
-    <row r="135" spans="1:4">
+      <c r="E134" s="6"/>
+    </row>
+    <row r="135" spans="1:5">
       <c r="A135" s="5">
-        <v>134</v>
+        <v>133</v>
       </c>
       <c r="B135" s="6"/>
       <c r="C135" s="6"/>
       <c r="D135" s="6"/>
-    </row>
-    <row r="136" spans="1:4">
+      <c r="E135" s="6"/>
+    </row>
+    <row r="136" spans="1:5">
       <c r="A136" s="5">
-        <v>135</v>
+        <v>134</v>
       </c>
       <c r="B136" s="6"/>
       <c r="C136" s="6"/>
       <c r="D136" s="6"/>
-    </row>
-    <row r="137" spans="1:4">
+      <c r="E136" s="6"/>
+    </row>
+    <row r="137" spans="1:5">
       <c r="A137" s="5">
-        <v>136</v>
+        <v>135</v>
       </c>
       <c r="B137" s="6"/>
       <c r="C137" s="6"/>
       <c r="D137" s="6"/>
-    </row>
-    <row r="138" spans="1:4">
+      <c r="E137" s="6"/>
+    </row>
+    <row r="138" spans="1:5">
       <c r="A138" s="5">
-        <v>137</v>
+        <v>136</v>
       </c>
       <c r="B138" s="6"/>
       <c r="C138" s="6"/>
       <c r="D138" s="6"/>
-    </row>
-    <row r="139" spans="1:4">
+      <c r="E138" s="6"/>
+    </row>
+    <row r="139" spans="1:5">
       <c r="A139" s="5">
-        <v>138</v>
+        <v>137</v>
       </c>
       <c r="B139" s="6"/>
       <c r="C139" s="6"/>
       <c r="D139" s="6"/>
-    </row>
-    <row r="140" spans="1:4">
+      <c r="E139" s="6"/>
+    </row>
+    <row r="140" spans="1:5">
       <c r="A140" s="5">
-        <v>139</v>
+        <v>138</v>
       </c>
       <c r="B140" s="6"/>
       <c r="C140" s="6"/>
       <c r="D140" s="6"/>
-    </row>
-    <row r="141" spans="1:4">
+      <c r="E140" s="6"/>
+    </row>
+    <row r="141" spans="1:5">
       <c r="A141" s="5">
-        <v>140</v>
+        <v>139</v>
       </c>
       <c r="B141" s="6"/>
       <c r="C141" s="6"/>
-      <c r="D141" s="7"/>
-    </row>
-    <row r="142" spans="1:4">
-      <c r="A142" s="8">
+      <c r="D141" s="6"/>
+      <c r="E141" s="6"/>
+    </row>
+    <row r="142" spans="1:5">
+      <c r="A142" s="5">
+        <v>140</v>
+      </c>
+      <c r="B142" s="6"/>
+      <c r="C142" s="6"/>
+      <c r="D142" s="7"/>
+      <c r="E142" s="7"/>
+    </row>
+    <row r="143" spans="1:5">
+      <c r="A143" s="8">
         <v>141</v>
-      </c>
-      <c r="B142" s="9"/>
-      <c r="C142" s="9"/>
-      <c r="D142" s="9"/>
-    </row>
-    <row r="143" spans="1:4">
-      <c r="A143" s="8">
-        <v>142</v>
       </c>
       <c r="B143" s="9"/>
       <c r="C143" s="9"/>
       <c r="D143" s="9"/>
-    </row>
-    <row r="144" spans="1:4">
+      <c r="E143" s="9"/>
+    </row>
+    <row r="144" spans="1:5">
       <c r="A144" s="8">
-        <v>143</v>
+        <v>142</v>
       </c>
       <c r="B144" s="9"/>
       <c r="C144" s="9"/>
       <c r="D144" s="9"/>
-    </row>
-    <row r="145" spans="1:4">
+      <c r="E144" s="9"/>
+    </row>
+    <row r="145" spans="1:5">
       <c r="A145" s="8">
-        <v>144</v>
+        <v>143</v>
       </c>
       <c r="B145" s="9"/>
       <c r="C145" s="9"/>
       <c r="D145" s="9"/>
-    </row>
-    <row r="146" spans="1:4">
+      <c r="E145" s="9"/>
+    </row>
+    <row r="146" spans="1:5">
       <c r="A146" s="8">
-        <v>145</v>
+        <v>144</v>
       </c>
       <c r="B146" s="9"/>
       <c r="C146" s="9"/>
       <c r="D146" s="9"/>
-    </row>
-    <row r="147" spans="1:4">
+      <c r="E146" s="9"/>
+    </row>
+    <row r="147" spans="1:5">
       <c r="A147" s="8">
+        <v>145</v>
+      </c>
+      <c r="B147" s="9"/>
+      <c r="C147" s="9"/>
+      <c r="D147" s="9"/>
+      <c r="E147" s="9"/>
+    </row>
+    <row r="148" spans="1:5">
+      <c r="A148" s="8">
         <v>146</v>
       </c>
-      <c r="B147" s="10"/>
-      <c r="C147" s="10"/>
-      <c r="D147" s="10"/>
-    </row>
-    <row r="148" spans="1:4">
-      <c r="A148" s="8">
+      <c r="B148" s="10"/>
+      <c r="C148" s="10"/>
+      <c r="D148" s="10"/>
+      <c r="E148" s="10"/>
+    </row>
+    <row r="149" spans="1:5">
+      <c r="A149" s="8">
         <v>147</v>
-      </c>
-      <c r="B148" s="9"/>
-      <c r="C148" s="9"/>
-      <c r="D148" s="9"/>
-    </row>
-    <row r="149" spans="1:4">
-      <c r="A149" s="8">
-        <v>148</v>
       </c>
       <c r="B149" s="9"/>
       <c r="C149" s="9"/>
       <c r="D149" s="9"/>
-    </row>
-    <row r="150" spans="1:4">
+      <c r="E149" s="9"/>
+    </row>
+    <row r="150" spans="1:5">
       <c r="A150" s="8">
-        <v>149</v>
+        <v>148</v>
       </c>
       <c r="B150" s="9"/>
       <c r="C150" s="9"/>
       <c r="D150" s="9"/>
-    </row>
-    <row r="151" spans="1:4">
+      <c r="E150" s="9"/>
+    </row>
+    <row r="151" spans="1:5">
       <c r="A151" s="8">
-        <v>150</v>
+        <v>149</v>
       </c>
       <c r="B151" s="9"/>
       <c r="C151" s="9"/>
       <c r="D151" s="9"/>
-    </row>
-    <row r="152" spans="1:4">
-      <c r="A152" s="5">
+      <c r="E151" s="9"/>
+    </row>
+    <row r="152" spans="1:5">
+      <c r="A152" s="8">
+        <v>150</v>
+      </c>
+      <c r="B152" s="9"/>
+      <c r="C152" s="9"/>
+      <c r="D152" s="9"/>
+      <c r="E152" s="9"/>
+    </row>
+    <row r="153" spans="1:5">
+      <c r="A153" s="5">
         <v>151</v>
-      </c>
-      <c r="B152" s="6"/>
-      <c r="C152" s="6"/>
-      <c r="D152" s="6"/>
-    </row>
-    <row r="153" spans="1:4">
-      <c r="A153" s="5">
-        <v>152</v>
       </c>
       <c r="B153" s="6"/>
       <c r="C153" s="6"/>
       <c r="D153" s="6"/>
-    </row>
-    <row r="154" spans="1:4">
+      <c r="E153" s="6"/>
+    </row>
+    <row r="154" spans="1:5">
       <c r="A154" s="5">
-        <v>153</v>
+        <v>152</v>
       </c>
       <c r="B154" s="6"/>
       <c r="C154" s="6"/>
       <c r="D154" s="6"/>
-    </row>
-    <row r="155" spans="1:4">
+      <c r="E154" s="6"/>
+    </row>
+    <row r="155" spans="1:5">
       <c r="A155" s="5">
-        <v>154</v>
+        <v>153</v>
       </c>
       <c r="B155" s="6"/>
       <c r="C155" s="6"/>
       <c r="D155" s="6"/>
-    </row>
-    <row r="156" spans="1:4">
+      <c r="E155" s="6"/>
+    </row>
+    <row r="156" spans="1:5">
       <c r="A156" s="5">
-        <v>155</v>
+        <v>154</v>
       </c>
       <c r="B156" s="6"/>
       <c r="C156" s="6"/>
       <c r="D156" s="6"/>
-    </row>
-    <row r="157" spans="1:4">
+      <c r="E156" s="6"/>
+    </row>
+    <row r="157" spans="1:5">
       <c r="A157" s="5">
-        <v>156</v>
+        <v>155</v>
       </c>
       <c r="B157" s="6"/>
       <c r="C157" s="6"/>
       <c r="D157" s="6"/>
-    </row>
-    <row r="158" spans="1:4">
+      <c r="E157" s="6"/>
+    </row>
+    <row r="158" spans="1:5">
       <c r="A158" s="5">
-        <v>157</v>
+        <v>156</v>
       </c>
       <c r="B158" s="6"/>
       <c r="C158" s="6"/>
       <c r="D158" s="6"/>
-    </row>
-    <row r="159" spans="1:4">
+      <c r="E158" s="6"/>
+    </row>
+    <row r="159" spans="1:5">
       <c r="A159" s="5">
-        <v>158</v>
+        <v>157</v>
       </c>
       <c r="B159" s="6"/>
       <c r="C159" s="6"/>
       <c r="D159" s="6"/>
-    </row>
-    <row r="160" spans="1:4">
+      <c r="E159" s="6"/>
+    </row>
+    <row r="160" spans="1:5">
       <c r="A160" s="5">
-        <v>159</v>
+        <v>158</v>
       </c>
       <c r="B160" s="6"/>
       <c r="C160" s="6"/>
       <c r="D160" s="6"/>
-    </row>
-    <row r="161" spans="1:4">
+      <c r="E160" s="6"/>
+    </row>
+    <row r="161" spans="1:5">
       <c r="A161" s="5">
-        <v>160</v>
+        <v>159</v>
       </c>
       <c r="B161" s="6"/>
       <c r="C161" s="6"/>
-      <c r="D161" s="7"/>
-    </row>
-    <row r="162" spans="1:4">
-      <c r="A162" s="8">
+      <c r="D161" s="6"/>
+      <c r="E161" s="6"/>
+    </row>
+    <row r="162" spans="1:5">
+      <c r="A162" s="5">
+        <v>160</v>
+      </c>
+      <c r="B162" s="6"/>
+      <c r="C162" s="6"/>
+      <c r="D162" s="7"/>
+      <c r="E162" s="7"/>
+    </row>
+    <row r="163" spans="1:5">
+      <c r="A163" s="8">
         <v>161</v>
-      </c>
-      <c r="B162" s="9"/>
-      <c r="C162" s="9"/>
-      <c r="D162" s="9"/>
-    </row>
-    <row r="163" spans="1:4">
-      <c r="A163" s="8">
-        <v>162</v>
       </c>
       <c r="B163" s="9"/>
       <c r="C163" s="9"/>
       <c r="D163" s="9"/>
-    </row>
-    <row r="164" spans="1:4">
+      <c r="E163" s="9"/>
+    </row>
+    <row r="164" spans="1:5">
       <c r="A164" s="8">
-        <v>163</v>
+        <v>162</v>
       </c>
       <c r="B164" s="9"/>
       <c r="C164" s="9"/>
       <c r="D164" s="9"/>
-    </row>
-    <row r="165" spans="1:4">
+      <c r="E164" s="9"/>
+    </row>
+    <row r="165" spans="1:5">
       <c r="A165" s="8">
-        <v>164</v>
+        <v>163</v>
       </c>
       <c r="B165" s="9"/>
       <c r="C165" s="9"/>
       <c r="D165" s="9"/>
-    </row>
-    <row r="166" spans="1:4">
+      <c r="E165" s="9"/>
+    </row>
+    <row r="166" spans="1:5">
       <c r="A166" s="8">
-        <v>165</v>
+        <v>164</v>
       </c>
       <c r="B166" s="9"/>
       <c r="C166" s="9"/>
       <c r="D166" s="9"/>
-    </row>
-    <row r="167" spans="1:4">
+      <c r="E166" s="9"/>
+    </row>
+    <row r="167" spans="1:5">
       <c r="A167" s="8">
+        <v>165</v>
+      </c>
+      <c r="B167" s="9"/>
+      <c r="C167" s="9"/>
+      <c r="D167" s="9"/>
+      <c r="E167" s="9"/>
+    </row>
+    <row r="168" spans="1:5">
+      <c r="A168" s="8">
         <v>166</v>
       </c>
-      <c r="B167" s="10"/>
-      <c r="C167" s="10"/>
-      <c r="D167" s="10"/>
-    </row>
-    <row r="168" spans="1:4">
-      <c r="A168" s="8">
+      <c r="B168" s="10"/>
+      <c r="C168" s="10"/>
+      <c r="D168" s="10"/>
+      <c r="E168" s="10"/>
+    </row>
+    <row r="169" spans="1:5">
+      <c r="A169" s="8">
         <v>167</v>
-      </c>
-      <c r="B168" s="9"/>
-      <c r="C168" s="9"/>
-      <c r="D168" s="9"/>
-    </row>
-    <row r="169" spans="1:4">
-      <c r="A169" s="8">
-        <v>168</v>
       </c>
       <c r="B169" s="9"/>
       <c r="C169" s="9"/>
       <c r="D169" s="9"/>
-    </row>
-    <row r="170" spans="1:4">
+      <c r="E169" s="9"/>
+    </row>
+    <row r="170" spans="1:5">
       <c r="A170" s="8">
-        <v>169</v>
+        <v>168</v>
       </c>
       <c r="B170" s="9"/>
       <c r="C170" s="9"/>
       <c r="D170" s="9"/>
-    </row>
-    <row r="171" spans="1:4">
+      <c r="E170" s="9"/>
+    </row>
+    <row r="171" spans="1:5">
       <c r="A171" s="8">
-        <v>170</v>
+        <v>169</v>
       </c>
       <c r="B171" s="9"/>
       <c r="C171" s="9"/>
       <c r="D171" s="9"/>
-    </row>
-    <row r="172" spans="1:4">
-      <c r="A172" s="5">
+      <c r="E171" s="9"/>
+    </row>
+    <row r="172" spans="1:5">
+      <c r="A172" s="8">
+        <v>170</v>
+      </c>
+      <c r="B172" s="9"/>
+      <c r="C172" s="9"/>
+      <c r="D172" s="9"/>
+      <c r="E172" s="9"/>
+    </row>
+    <row r="173" spans="1:5">
+      <c r="A173" s="5">
         <v>171</v>
-      </c>
-      <c r="B172" s="6"/>
-      <c r="C172" s="6"/>
-      <c r="D172" s="6"/>
-    </row>
-    <row r="173" spans="1:4">
-      <c r="A173" s="5">
-        <v>172</v>
       </c>
       <c r="B173" s="6"/>
       <c r="C173" s="6"/>
       <c r="D173" s="6"/>
-    </row>
-    <row r="174" spans="1:4">
+      <c r="E173" s="6"/>
+    </row>
+    <row r="174" spans="1:5">
       <c r="A174" s="5">
-        <v>173</v>
+        <v>172</v>
       </c>
       <c r="B174" s="6"/>
       <c r="C174" s="6"/>
       <c r="D174" s="6"/>
-    </row>
-    <row r="175" spans="1:4">
+      <c r="E174" s="6"/>
+    </row>
+    <row r="175" spans="1:5">
       <c r="A175" s="5">
-        <v>174</v>
+        <v>173</v>
       </c>
       <c r="B175" s="6"/>
       <c r="C175" s="6"/>
       <c r="D175" s="6"/>
-    </row>
-    <row r="176" spans="1:4">
+      <c r="E175" s="6"/>
+    </row>
+    <row r="176" spans="1:5">
       <c r="A176" s="5">
-        <v>175</v>
+        <v>174</v>
       </c>
       <c r="B176" s="6"/>
       <c r="C176" s="6"/>
       <c r="D176" s="6"/>
-    </row>
-    <row r="177" spans="1:4">
+      <c r="E176" s="6"/>
+    </row>
+    <row r="177" spans="1:5">
       <c r="A177" s="5">
-        <v>176</v>
+        <v>175</v>
       </c>
       <c r="B177" s="6"/>
       <c r="C177" s="6"/>
       <c r="D177" s="6"/>
-    </row>
-    <row r="178" spans="1:4">
+      <c r="E177" s="6"/>
+    </row>
+    <row r="178" spans="1:5">
       <c r="A178" s="5">
-        <v>177</v>
+        <v>176</v>
       </c>
       <c r="B178" s="6"/>
       <c r="C178" s="6"/>
       <c r="D178" s="6"/>
-    </row>
-    <row r="179" spans="1:4">
+      <c r="E178" s="6"/>
+    </row>
+    <row r="179" spans="1:5">
       <c r="A179" s="5">
-        <v>178</v>
+        <v>177</v>
       </c>
       <c r="B179" s="6"/>
       <c r="C179" s="6"/>
       <c r="D179" s="6"/>
-    </row>
-    <row r="180" spans="1:4">
+      <c r="E179" s="6"/>
+    </row>
+    <row r="180" spans="1:5">
       <c r="A180" s="5">
-        <v>179</v>
+        <v>178</v>
       </c>
       <c r="B180" s="6"/>
       <c r="C180" s="6"/>
       <c r="D180" s="6"/>
-    </row>
-    <row r="181" spans="1:4">
+      <c r="E180" s="6"/>
+    </row>
+    <row r="181" spans="1:5">
       <c r="A181" s="5">
-        <v>180</v>
+        <v>179</v>
       </c>
       <c r="B181" s="6"/>
       <c r="C181" s="6"/>
-      <c r="D181" s="7"/>
-    </row>
-    <row r="182" spans="1:4">
-      <c r="A182" s="8">
+      <c r="D181" s="6"/>
+      <c r="E181" s="6"/>
+    </row>
+    <row r="182" spans="1:5">
+      <c r="A182" s="5">
+        <v>180</v>
+      </c>
+      <c r="B182" s="6"/>
+      <c r="C182" s="6"/>
+      <c r="D182" s="7"/>
+      <c r="E182" s="7"/>
+    </row>
+    <row r="183" spans="1:5">
+      <c r="A183" s="8">
         <v>181</v>
-      </c>
-      <c r="B182" s="9"/>
-      <c r="C182" s="9"/>
-      <c r="D182" s="9"/>
-    </row>
-    <row r="183" spans="1:4">
-      <c r="A183" s="8">
-        <v>182</v>
       </c>
       <c r="B183" s="9"/>
       <c r="C183" s="9"/>
       <c r="D183" s="9"/>
-    </row>
-    <row r="184" spans="1:4">
+      <c r="E183" s="9"/>
+    </row>
+    <row r="184" spans="1:5">
       <c r="A184" s="8">
-        <v>183</v>
+        <v>182</v>
       </c>
       <c r="B184" s="9"/>
       <c r="C184" s="9"/>
       <c r="D184" s="9"/>
-    </row>
-    <row r="185" spans="1:4">
+      <c r="E184" s="9"/>
+    </row>
+    <row r="185" spans="1:5">
       <c r="A185" s="8">
-        <v>184</v>
+        <v>183</v>
       </c>
       <c r="B185" s="9"/>
       <c r="C185" s="9"/>
       <c r="D185" s="9"/>
-    </row>
-    <row r="186" spans="1:4">
+      <c r="E185" s="9"/>
+    </row>
+    <row r="186" spans="1:5">
       <c r="A186" s="8">
-        <v>185</v>
+        <v>184</v>
       </c>
       <c r="B186" s="9"/>
       <c r="C186" s="9"/>
       <c r="D186" s="9"/>
-    </row>
-    <row r="187" spans="1:4">
+      <c r="E186" s="9"/>
+    </row>
+    <row r="187" spans="1:5">
       <c r="A187" s="8">
+        <v>185</v>
+      </c>
+      <c r="B187" s="9"/>
+      <c r="C187" s="9"/>
+      <c r="D187" s="9"/>
+      <c r="E187" s="9"/>
+    </row>
+    <row r="188" spans="1:5">
+      <c r="A188" s="8">
         <v>186</v>
       </c>
-      <c r="B187" s="10"/>
-      <c r="C187" s="10"/>
-      <c r="D187" s="10"/>
-    </row>
-    <row r="188" spans="1:4">
-      <c r="A188" s="8">
+      <c r="B188" s="10"/>
+      <c r="C188" s="10"/>
+      <c r="D188" s="10"/>
+      <c r="E188" s="10"/>
+    </row>
+    <row r="189" spans="1:5">
+      <c r="A189" s="8">
         <v>187</v>
-      </c>
-      <c r="B188" s="9"/>
-      <c r="C188" s="9"/>
-      <c r="D188" s="9"/>
-    </row>
-    <row r="189" spans="1:4">
-      <c r="A189" s="8">
-        <v>188</v>
       </c>
       <c r="B189" s="9"/>
       <c r="C189" s="9"/>
       <c r="D189" s="9"/>
-    </row>
-    <row r="190" spans="1:4">
+      <c r="E189" s="9"/>
+    </row>
+    <row r="190" spans="1:5">
       <c r="A190" s="8">
-        <v>189</v>
+        <v>188</v>
       </c>
       <c r="B190" s="9"/>
       <c r="C190" s="9"/>
       <c r="D190" s="9"/>
-    </row>
-    <row r="191" spans="1:4">
+      <c r="E190" s="9"/>
+    </row>
+    <row r="191" spans="1:5">
       <c r="A191" s="8">
-        <v>190</v>
+        <v>189</v>
       </c>
       <c r="B191" s="9"/>
       <c r="C191" s="9"/>
       <c r="D191" s="9"/>
-    </row>
-    <row r="192" spans="1:4">
-      <c r="A192" s="5">
+      <c r="E191" s="9"/>
+    </row>
+    <row r="192" spans="1:5">
+      <c r="A192" s="8">
+        <v>190</v>
+      </c>
+      <c r="B192" s="9"/>
+      <c r="C192" s="9"/>
+      <c r="D192" s="9"/>
+      <c r="E192" s="9"/>
+    </row>
+    <row r="193" spans="1:5">
+      <c r="A193" s="5">
         <v>191</v>
-      </c>
-      <c r="B192" s="6"/>
-      <c r="C192" s="6"/>
-      <c r="D192" s="6"/>
-    </row>
-    <row r="193" spans="1:4">
-      <c r="A193" s="5">
-        <v>192</v>
       </c>
       <c r="B193" s="6"/>
       <c r="C193" s="6"/>
       <c r="D193" s="6"/>
-    </row>
-    <row r="194" spans="1:4">
+      <c r="E193" s="6"/>
+    </row>
+    <row r="194" spans="1:5">
       <c r="A194" s="5">
-        <v>193</v>
+        <v>192</v>
       </c>
       <c r="B194" s="6"/>
       <c r="C194" s="6"/>
       <c r="D194" s="6"/>
-    </row>
-    <row r="195" spans="1:4">
+      <c r="E194" s="6"/>
+    </row>
+    <row r="195" spans="1:5">
       <c r="A195" s="5">
-        <v>194</v>
+        <v>193</v>
       </c>
       <c r="B195" s="6"/>
       <c r="C195" s="6"/>
       <c r="D195" s="6"/>
-    </row>
-    <row r="196" spans="1:4">
+      <c r="E195" s="6"/>
+    </row>
+    <row r="196" spans="1:5">
       <c r="A196" s="5">
-        <v>195</v>
+        <v>194</v>
       </c>
       <c r="B196" s="6"/>
       <c r="C196" s="6"/>
       <c r="D196" s="6"/>
-    </row>
-    <row r="197" spans="1:4">
+      <c r="E196" s="6"/>
+    </row>
+    <row r="197" spans="1:5">
       <c r="A197" s="5">
-        <v>196</v>
+        <v>195</v>
       </c>
       <c r="B197" s="6"/>
       <c r="C197" s="6"/>
       <c r="D197" s="6"/>
-    </row>
-    <row r="198" spans="1:4">
+      <c r="E197" s="6"/>
+    </row>
+    <row r="198" spans="1:5">
       <c r="A198" s="5">
-        <v>197</v>
+        <v>196</v>
       </c>
       <c r="B198" s="6"/>
       <c r="C198" s="6"/>
       <c r="D198" s="6"/>
-    </row>
-    <row r="199" spans="1:4">
+      <c r="E198" s="6"/>
+    </row>
+    <row r="199" spans="1:5">
       <c r="A199" s="5">
-        <v>198</v>
+        <v>197</v>
       </c>
       <c r="B199" s="6"/>
       <c r="C199" s="6"/>
       <c r="D199" s="6"/>
+      <c r="E199" s="6"/>
+    </row>
+    <row r="200" spans="1:5">
+      <c r="A200" s="5">
+        <v>198</v>
+      </c>
+      <c r="B200" s="6"/>
+      <c r="C200" s="6"/>
+      <c r="D200" s="6"/>
+      <c r="E200" s="6"/>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
@@ -2933,67 +3554,130 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A2:B8"/>
+  <dimension ref="B2:B9"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="B7" sqref="B7"/>
+      <selection activeCell="J16" sqref="J16"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="15"/>
+  <sheetData>
+    <row r="2" spans="2:2" ht="15.75">
+      <c r="B2" s="12" t="s">
+        <v>123</v>
+      </c>
+    </row>
+    <row r="3" spans="2:2" ht="15.75">
+      <c r="B3" s="13" t="s">
+        <v>124</v>
+      </c>
+    </row>
+    <row r="4" spans="2:2" ht="15.75">
+      <c r="B4" s="13" t="s">
+        <v>125</v>
+      </c>
+    </row>
+    <row r="5" spans="2:2" ht="15.75">
+      <c r="B5" s="13" t="s">
+        <v>126</v>
+      </c>
+    </row>
+    <row r="6" spans="2:2" ht="15.75">
+      <c r="B6" s="13" t="s">
+        <v>127</v>
+      </c>
+    </row>
+    <row r="7" spans="2:2" ht="15.75">
+      <c r="B7" s="13" t="s">
+        <v>128</v>
+      </c>
+    </row>
+    <row r="8" spans="2:2" ht="15.75">
+      <c r="B8" s="13" t="s">
+        <v>129</v>
+      </c>
+    </row>
+    <row r="9" spans="2:2" ht="15.75">
+      <c r="B9" s="13" t="s">
+        <v>130</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <dimension ref="A2:B9"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="B14" sqref="B14"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
   <cols>
-    <col min="1" max="1" width="13.85546875" customWidth="1"/>
+    <col min="1" max="1" width="19.42578125" customWidth="1"/>
     <col min="2" max="2" width="134.140625" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="2" spans="1:2">
-      <c r="A2" s="14" t="s">
+      <c r="A2" s="17" t="s">
+        <v>109</v>
+      </c>
+      <c r="B2" s="11" t="s">
+        <v>110</v>
+      </c>
+    </row>
+    <row r="3" spans="1:2">
+      <c r="A3" s="17"/>
+      <c r="B3" s="11" t="s">
         <v>111</v>
       </c>
-      <c r="B2" s="13" t="s">
+    </row>
+    <row r="4" spans="1:2">
+      <c r="A4" s="11" t="s">
         <v>112</v>
       </c>
-    </row>
-    <row r="3" spans="1:2">
-      <c r="A3" s="14"/>
-      <c r="B3" s="13" t="s">
+      <c r="B4" s="11" t="s">
         <v>113</v>
       </c>
     </row>
-    <row r="4" spans="1:2">
-      <c r="A4" s="13" t="s">
+    <row r="5" spans="1:2">
+      <c r="A5" s="17" t="s">
         <v>114</v>
       </c>
-      <c r="B4" s="13" t="s">
+      <c r="B5" s="11" t="s">
         <v>115</v>
       </c>
     </row>
-    <row r="5" spans="1:2">
-      <c r="A5" s="14" t="s">
+    <row r="6" spans="1:2">
+      <c r="A6" s="17"/>
+      <c r="B6" s="11" t="s">
         <v>116</v>
       </c>
-      <c r="B5" s="13" t="s">
+    </row>
+    <row r="7" spans="1:2">
+      <c r="A7" s="11" t="s">
         <v>117</v>
       </c>
-    </row>
-    <row r="6" spans="1:2">
-      <c r="A6" s="14"/>
-      <c r="B6" s="13" t="s">
+      <c r="B7" s="11" t="s">
         <v>118</v>
       </c>
     </row>
-    <row r="7" spans="1:2">
-      <c r="A7" s="13" t="s">
+    <row r="8" spans="1:2">
+      <c r="A8" s="11" t="s">
         <v>119</v>
       </c>
-      <c r="B7" s="13" t="s">
-        <v>120</v>
-      </c>
-    </row>
-    <row r="8" spans="1:2">
-      <c r="A8" s="13" t="s">
-        <v>121</v>
-      </c>
-      <c r="B8" s="13"/>
+      <c r="B8" s="11"/>
+    </row>
+    <row r="9" spans="1:2">
+      <c r="A9" s="14" t="s">
+        <v>149</v>
+      </c>
+      <c r="B9" s="15" t="s">
+        <v>148</v>
+      </c>
     </row>
   </sheetData>
   <mergeCells count="2">
@@ -3004,7 +3688,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1"/>
   <sheetViews>
@@ -3019,11 +3703,11 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="B2:Q28"/>
   <sheetViews>
-    <sheetView topLeftCell="A7" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <selection activeCell="L20" sqref="L20"/>
     </sheetView>
   </sheetViews>
@@ -3034,131 +3718,131 @@
   <sheetData>
     <row r="2" spans="2:17">
       <c r="B2" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
     </row>
     <row r="5" spans="2:17">
       <c r="B5" t="s">
-        <v>34</v>
+        <v>33</v>
       </c>
     </row>
     <row r="6" spans="2:17">
       <c r="B6" t="s">
-        <v>35</v>
+        <v>34</v>
       </c>
     </row>
     <row r="7" spans="2:17">
       <c r="B7" t="s">
-        <v>36</v>
+        <v>35</v>
       </c>
     </row>
     <row r="8" spans="2:17">
       <c r="B8" t="s">
-        <v>37</v>
+        <v>36</v>
       </c>
     </row>
     <row r="10" spans="2:17">
       <c r="B10" t="s">
-        <v>41</v>
+        <v>40</v>
       </c>
     </row>
     <row r="11" spans="2:17">
       <c r="B11" t="s">
+        <v>37</v>
+      </c>
+    </row>
+    <row r="13" spans="2:17">
+      <c r="C13" s="18" t="s">
         <v>38</v>
       </c>
-    </row>
-    <row r="13" spans="2:17">
-      <c r="C13" s="16" t="s">
+      <c r="D13" s="18"/>
+      <c r="E13" s="18" t="s">
         <v>39</v>
       </c>
-      <c r="D13" s="16"/>
-      <c r="E13" s="16" t="s">
-        <v>40</v>
-      </c>
-      <c r="F13" s="16"/>
-      <c r="G13" s="16" t="s">
-        <v>49</v>
-      </c>
-      <c r="H13" s="16"/>
-      <c r="M13" s="16" t="s">
-        <v>49</v>
-      </c>
-      <c r="N13" s="16"/>
+      <c r="F13" s="18"/>
+      <c r="G13" s="18" t="s">
+        <v>48</v>
+      </c>
+      <c r="H13" s="18"/>
+      <c r="M13" s="18" t="s">
+        <v>48</v>
+      </c>
+      <c r="N13" s="18"/>
       <c r="O13" t="s">
-        <v>42</v>
+        <v>41</v>
       </c>
       <c r="P13" s="2" t="s">
-        <v>47</v>
+        <v>46</v>
       </c>
       <c r="Q13" s="2"/>
     </row>
     <row r="14" spans="2:17">
-      <c r="C14" s="15" t="s">
-        <v>42</v>
-      </c>
-      <c r="D14" s="15"/>
-      <c r="E14" s="15" t="s">
-        <v>42</v>
-      </c>
-      <c r="F14" s="15"/>
-      <c r="G14" s="15" t="s">
-        <v>42</v>
-      </c>
-      <c r="H14" s="15"/>
+      <c r="C14" s="19" t="s">
+        <v>41</v>
+      </c>
+      <c r="D14" s="19"/>
+      <c r="E14" s="19" t="s">
+        <v>41</v>
+      </c>
+      <c r="F14" s="19"/>
+      <c r="G14" s="19" t="s">
+        <v>41</v>
+      </c>
+      <c r="H14" s="19"/>
       <c r="K14" s="4"/>
       <c r="L14" s="4"/>
     </row>
     <row r="15" spans="2:17">
-      <c r="C15" s="15" t="s">
-        <v>44</v>
-      </c>
-      <c r="D15" s="15"/>
-      <c r="E15" s="15" t="s">
+      <c r="C15" s="19" t="s">
         <v>43</v>
       </c>
-      <c r="F15" s="15"/>
-      <c r="G15" s="15" t="s">
-        <v>47</v>
-      </c>
-      <c r="H15" s="15"/>
+      <c r="D15" s="19"/>
+      <c r="E15" s="19" t="s">
+        <v>42</v>
+      </c>
+      <c r="F15" s="19"/>
+      <c r="G15" s="19" t="s">
+        <v>46</v>
+      </c>
+      <c r="H15" s="19"/>
       <c r="K15" s="4"/>
       <c r="L15" s="4"/>
     </row>
     <row r="16" spans="2:17">
-      <c r="C16" s="15" t="s">
-        <v>45</v>
-      </c>
-      <c r="D16" s="15"/>
+      <c r="C16" s="19" t="s">
+        <v>44</v>
+      </c>
+      <c r="D16" s="19"/>
       <c r="E16" s="1"/>
       <c r="F16" s="1"/>
       <c r="G16" s="1"/>
       <c r="H16" s="1"/>
     </row>
     <row r="17" spans="3:8">
-      <c r="C17" s="15" t="s">
-        <v>46</v>
-      </c>
-      <c r="D17" s="15"/>
+      <c r="C17" s="19" t="s">
+        <v>45</v>
+      </c>
+      <c r="D17" s="19"/>
       <c r="E17" s="1"/>
       <c r="F17" s="1"/>
       <c r="G17" s="1"/>
       <c r="H17" s="1"/>
     </row>
     <row r="18" spans="3:8">
-      <c r="C18" s="15" t="s">
-        <v>47</v>
-      </c>
-      <c r="D18" s="15"/>
+      <c r="C18" s="19" t="s">
+        <v>46</v>
+      </c>
+      <c r="D18" s="19"/>
       <c r="E18" s="1"/>
       <c r="F18" s="1"/>
       <c r="G18" s="1"/>
       <c r="H18" s="1"/>
     </row>
     <row r="19" spans="3:8">
-      <c r="C19" s="15" t="s">
-        <v>48</v>
-      </c>
-      <c r="D19" s="15"/>
+      <c r="C19" s="19" t="s">
+        <v>47</v>
+      </c>
+      <c r="D19" s="19"/>
       <c r="E19" s="1"/>
       <c r="F19" s="1"/>
       <c r="G19" s="1"/>
@@ -3166,47 +3850,52 @@
     </row>
     <row r="22" spans="3:8">
       <c r="C22" t="s">
-        <v>50</v>
+        <v>49</v>
       </c>
     </row>
     <row r="23" spans="3:8">
-      <c r="C23" s="15" t="s">
-        <v>42</v>
-      </c>
-      <c r="D23" s="15"/>
+      <c r="C23" s="19" t="s">
+        <v>41</v>
+      </c>
+      <c r="D23" s="19"/>
     </row>
     <row r="24" spans="3:8">
-      <c r="C24" s="15" t="s">
+      <c r="C24" s="19" t="s">
+        <v>43</v>
+      </c>
+      <c r="D24" s="19"/>
+    </row>
+    <row r="25" spans="3:8">
+      <c r="C25" s="19" t="s">
         <v>44</v>
       </c>
-      <c r="D24" s="15"/>
-    </row>
-    <row r="25" spans="3:8">
-      <c r="C25" s="15" t="s">
+      <c r="D25" s="19"/>
+    </row>
+    <row r="26" spans="3:8">
+      <c r="C26" s="19" t="s">
         <v>45</v>
       </c>
-      <c r="D25" s="15"/>
-    </row>
-    <row r="26" spans="3:8">
-      <c r="C26" s="15" t="s">
+      <c r="D26" s="19"/>
+    </row>
+    <row r="27" spans="3:8">
+      <c r="C27" s="19" t="s">
         <v>46</v>
       </c>
-      <c r="D26" s="15"/>
-    </row>
-    <row r="27" spans="3:8">
-      <c r="C27" s="15" t="s">
+      <c r="D27" s="19"/>
+    </row>
+    <row r="28" spans="3:8">
+      <c r="C28" s="19" t="s">
         <v>47</v>
       </c>
-      <c r="D27" s="15"/>
-    </row>
-    <row r="28" spans="3:8">
-      <c r="C28" s="15" t="s">
-        <v>48</v>
-      </c>
-      <c r="D28" s="15"/>
+      <c r="D28" s="19"/>
     </row>
   </sheetData>
   <mergeCells count="20">
+    <mergeCell ref="C27:D27"/>
+    <mergeCell ref="C28:D28"/>
+    <mergeCell ref="C17:D17"/>
+    <mergeCell ref="C18:D18"/>
+    <mergeCell ref="C19:D19"/>
     <mergeCell ref="M13:N13"/>
     <mergeCell ref="C23:D23"/>
     <mergeCell ref="C24:D24"/>
@@ -3222,12 +3911,102 @@
     <mergeCell ref="C14:D14"/>
     <mergeCell ref="C15:D15"/>
     <mergeCell ref="C16:D16"/>
-    <mergeCell ref="C27:D27"/>
-    <mergeCell ref="C28:D28"/>
-    <mergeCell ref="C17:D17"/>
-    <mergeCell ref="C18:D18"/>
-    <mergeCell ref="C19:D19"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
+</file>
+
+<file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <dimension ref="B3:B13"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="F16" sqref="F15:F16"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="15"/>
+  <sheetData>
+    <row r="3" spans="2:2">
+      <c r="B3" t="s">
+        <v>137</v>
+      </c>
+    </row>
+    <row r="4" spans="2:2">
+      <c r="B4" t="s">
+        <v>138</v>
+      </c>
+    </row>
+    <row r="5" spans="2:2">
+      <c r="B5" t="s">
+        <v>139</v>
+      </c>
+    </row>
+    <row r="6" spans="2:2">
+      <c r="B6" t="s">
+        <v>140</v>
+      </c>
+    </row>
+    <row r="7" spans="2:2">
+      <c r="B7" t="s">
+        <v>141</v>
+      </c>
+    </row>
+    <row r="8" spans="2:2">
+      <c r="B8" t="s">
+        <v>142</v>
+      </c>
+    </row>
+    <row r="9" spans="2:2">
+      <c r="B9" t="s">
+        <v>143</v>
+      </c>
+    </row>
+    <row r="10" spans="2:2">
+      <c r="B10" t="s">
+        <v>144</v>
+      </c>
+    </row>
+    <row r="11" spans="2:2">
+      <c r="B11" t="s">
+        <v>145</v>
+      </c>
+    </row>
+    <row r="12" spans="2:2">
+      <c r="B12" t="s">
+        <v>146</v>
+      </c>
+    </row>
+    <row r="13" spans="2:2">
+      <c r="B13" t="s">
+        <v>147</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet7.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <dimension ref="B2:B3"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="D7" sqref="D7"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="15"/>
+  <sheetData>
+    <row r="2" spans="2:2">
+      <c r="B2" t="s">
+        <v>174</v>
+      </c>
+    </row>
+    <row r="3" spans="2:2">
+      <c r="B3" t="s">
+        <v>175</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
 </file>
--- a/Vocabulary.xlsx
+++ b/Vocabulary.xlsx
@@ -9,7 +9,7 @@
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="20490" windowHeight="7755"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="20490" windowHeight="7755" activeTab="2"/>
   </bookViews>
   <sheets>
     <sheet name="Vocabulary" sheetId="1" r:id="rId1"/>
@@ -19,6 +19,9 @@
     <sheet name="Q&amp;A" sheetId="3" r:id="rId5"/>
     <sheet name="Q&amp;A 19072017" sheetId="6" r:id="rId6"/>
     <sheet name="Note HR" sheetId="8" r:id="rId7"/>
+    <sheet name="Note Ozui" sheetId="9" r:id="rId8"/>
+    <sheet name="Note MCR" sheetId="10" r:id="rId9"/>
+    <sheet name="Validate Date" sheetId="11" r:id="rId10"/>
   </sheets>
   <calcPr calcId="152511"/>
   <extLst>
@@ -30,7 +33,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="188" uniqueCount="176">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="323" uniqueCount="301">
   <si>
     <t>commitment</t>
   </si>
@@ -739,12 +742,387 @@
   <si>
     <t>D:\Owncloud\TC Systems (Vietnam) - Public\General Administration\Health care insurance</t>
   </si>
+  <si>
+    <t>https://github.com/mozilla/geckodriver/issues/532</t>
+  </si>
+  <si>
+    <t>This has been fixed in Selenium Java 3.3.1.</t>
+  </si>
+  <si>
+    <t>Selenium 3.3, FireFox 52.0 and Gecko 0.15 #532</t>
+  </si>
+  <si>
+    <t>------------------------</t>
+  </si>
+  <si>
+    <t>GeckoDriver - 0.16</t>
+  </si>
+  <si>
+    <t>Firefox 53.0.0 (Latest version)</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Selenium 3.4.0 </t>
+  </si>
+  <si>
+    <t>JDBC</t>
+  </si>
+  <si>
+    <t>Spring-JDBC</t>
+  </si>
+  <si>
+    <t>Sprint-JPA</t>
+  </si>
+  <si>
+    <t>Customer that bại thì cũng phải roll back data vừa insert vào table Person nghe</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Với Add Corporate Customer: </t>
+  </si>
+  <si>
+    <t>- Các trường bắt buộc: name, gstId, customerTypeId =&gt; Giá trị khác null, khác ""</t>
+  </si>
+  <si>
+    <t>- Không insert các giá trị "ID No", "Passport No", "Passport expiry date", "Passport Issued By" =&gt; Dù có truyền vào thì cũng ignore nó đi</t>
+  </si>
+  <si>
+    <t>-----------------------------------------------------</t>
+  </si>
+  <si>
+    <t>Với Add Walkin Customer:</t>
+  </si>
+  <si>
+    <t>- Các trường bắt buộc: firstName, lastName, birthDate, idNo (or passportNo, passportExpirationDate, Passport Issued By),  =&gt; Giá trị khác null, khác ""</t>
+  </si>
+  <si>
+    <t>- Không insert các giá trị "reg", "gstId", "name" =&gt; Dù có truyền vào thì cũng ignore nó đi</t>
+  </si>
+  <si>
+    <t>- reg (mã số đăng kí cty), gstId: Không được duplicate</t>
+  </si>
+  <si>
+    <t>- idNo, passportNo : Không được duplicate</t>
+  </si>
+  <si>
+    <t>Vendor: Vendor Code, Vendor Name , Vendor Type</t>
+  </si>
+  <si>
+    <t>1 CORPORATE</t>
+  </si>
+  <si>
+    <t>2 WALKIN user</t>
+  </si>
+  <si>
+    <t>3 VENDOR vendor</t>
+  </si>
+  <si>
+    <t>C:\Users\lien\AppData\Local\Android\sdk</t>
+  </si>
+  <si>
+    <t>Android SDK (install on windows 10)</t>
+  </si>
+  <si>
+    <t>https://www.youtube.com/watch?v=7kV-jvxN1H4</t>
+  </si>
+  <si>
+    <t>https://developer.android.com/studio/index.html</t>
+  </si>
+  <si>
+    <t>SDK folder:</t>
+  </si>
+  <si>
+    <t>Ruby</t>
+  </si>
+  <si>
+    <t>http://alextamoykin.com/day-1-setup/</t>
+  </si>
+  <si>
+    <t>https://rubyinstaller.org/downloads/</t>
+  </si>
+  <si>
+    <t>Calabash Android</t>
+  </si>
+  <si>
+    <t>Function</t>
+  </si>
+  <si>
+    <t>Link</t>
+  </si>
+  <si>
+    <t>API</t>
+  </si>
+  <si>
+    <t>Customer</t>
+  </si>
+  <si>
+    <t>Vehicle</t>
+  </si>
+  <si>
+    <t>UI</t>
+  </si>
+  <si>
+    <t>http://35.202.182.95/#/app/masterdata/vehicle/variant</t>
+  </si>
+  <si>
+    <t>http://35.202.182.95:81/#/psc-admin/organization</t>
+  </si>
+  <si>
+    <t>http://35.202.182.95:81/#/product-sku/blueprint</t>
+  </si>
+  <si>
+    <t>35.194.48.177:81/#/app/customer</t>
+  </si>
+  <si>
+    <t>http://rubyinstaller.org/  =&gt; for older version</t>
+  </si>
+  <si>
+    <t>https://github.com/calabash/install</t>
+  </si>
+  <si>
+    <t>https://developer.xamarin.com/guides/testcloud/calabash/configuring/windows/calabash-sandbox/</t>
+  </si>
+  <si>
+    <t>Test Andoid</t>
+  </si>
+  <si>
+    <t>Query element:</t>
+  </si>
+  <si>
+    <t>- mở device</t>
+  </si>
+  <si>
+    <t>- chạy: calabash-android run FramgiaStaff.apk</t>
+  </si>
+  <si>
+    <t>+ calabash-android console FramgiaStaff.apk</t>
+  </si>
+  <si>
+    <t xml:space="preserve">+ start_test_server_in_background </t>
+  </si>
+  <si>
+    <t>+ query("button index:1")</t>
+  </si>
+  <si>
+    <t>http://35.184.206.141:8000/customer/search?customerType=WALKIN</t>
+  </si>
+  <si>
+    <t>http://35.184.206.141:8001/item/search</t>
+  </si>
+  <si>
+    <t>http://35.202.182.95:81/#/pricing/rental-rate</t>
+  </si>
+  <si>
+    <t>Pricing</t>
+  </si>
+  <si>
+    <t>P&amp;S</t>
+  </si>
+  <si>
+    <t>P&amp;S SKU</t>
+  </si>
+  <si>
+    <t>P&amp;S Admin</t>
+  </si>
+  <si>
+    <t>http://35.192.137.216:8001/surcharge-peak-season/search</t>
+  </si>
+  <si>
+    <t>Car Rental</t>
+  </si>
+  <si>
+    <t>http://35.187.234.157:81/#/app/agreement</t>
+  </si>
+  <si>
+    <t>1 . Kiểm tra maxlength</t>
+  </si>
+  <si>
+    <t>2 . Kiểm tra ngày hợp lệ</t>
+  </si>
+  <si>
+    <t>3 . Có cho phép nhập chữ hay không?</t>
+  </si>
+  <si>
+    <t>4 . Có cho phép nhập ký tự đặc biệt hay không?</t>
+  </si>
+  <si>
+    <t>5 . Có cho phép nhập ký tự số 2 byte hay không?</t>
+  </si>
+  <si>
+    <t>6 . Kiểm tra format theo kiểu nào?</t>
+  </si>
+  <si>
+    <t>7 . Kiểm tra đối với trường hợp năm nhuần có được tính đúng không?</t>
+  </si>
+  <si>
+    <t>8 . Kiểm tra giá trị 00 và 13 đối với tháng</t>
+  </si>
+  <si>
+    <t>9 . Kiểm tra giá trị 00 và 32 đối với ngày</t>
+  </si>
+  <si>
+    <t>10 . Kiểm tra giá trị 28 , 29, 30 -Feb có được tính đúng không?</t>
+  </si>
+  <si>
+    <t>https://www.udemy.com</t>
+  </si>
+  <si>
+    <t>https://www.coursera.org/</t>
+  </si>
+  <si>
+    <t>https://egghead.io/lessons/javascript-redux-react-todo-list-example-adding-a-todo</t>
+  </si>
+  <si>
+    <t>https://www.liveedu.tv/fnnzzz/RvDD2-react-redux-and-material-ui/waKEy-react-redux-and-material-ui-10/</t>
+  </si>
+  <si>
+    <t>https://teamtreehouse.com/</t>
+  </si>
+  <si>
+    <t>nguoisechia.com@binnary.com</t>
+  </si>
+  <si>
+    <t>nguoisechia</t>
+  </si>
+  <si>
+    <t>blackdarkwolf96@gmail.com</t>
+  </si>
+  <si>
+    <t>superpassword</t>
+  </si>
+  <si>
+    <t>server.get('org/read', Routes.organizationRoutes.read);</t>
+  </si>
+  <si>
+    <t>server.get('org/search', Routes.organizationRoutes.search);</t>
+  </si>
+  <si>
+    <t>server.get('org/get', Routes.organizationRoutes.getOrganization);</t>
+  </si>
+  <si>
+    <t>server.put('org/update', Routes.organizationRoutes.update);</t>
+  </si>
+  <si>
+    <t>server.post('org/create', Routes.organizationRoutes.create);</t>
+  </si>
+  <si>
+    <t>server.get('org/checkcode', Routes.organizationRoutes.checkExistCode);</t>
+  </si>
+  <si>
+    <t>server.get('itemblueprint/read', Routes.itemBlueprintRoutes.read);</t>
+  </si>
+  <si>
+    <t>server.get('itemblueprint/search', Routes.itemBlueprintRoutes.search);</t>
+  </si>
+  <si>
+    <t>server.put('itemblueprint/update', Routes.itemBlueprintRoutes.update);</t>
+  </si>
+  <si>
+    <t>server.post('itemblueprint/create', Routes.itemBlueprintRoutes.create);</t>
+  </si>
+  <si>
+    <t>server.get('itemblueprint/checkcode', Routes.itemBlueprintRoutes.checkExistCode);</t>
+  </si>
+  <si>
+    <t>server.get('/customproperty/search', Routes.customPropertyRouter.searchCustomProperty);</t>
+  </si>
+  <si>
+    <t>server.get('/customproperty/read', Routes.customPropertyRouter.readCustomProperty);</t>
+  </si>
+  <si>
+    <t>server.get('/customproperty/checkcode', Routes.customPropertyRouter.checkExistCodeCustomProperty);</t>
+  </si>
+  <si>
+    <t>server.post('/customproperty/add', Routes.customPropertyRouter.addCustomProperty);</t>
+  </si>
+  <si>
+    <t>server.post('/customproperty/update', Routes.customPropertyRouter.updateCustomProperty);</t>
+  </si>
+  <si>
+    <t>server.get('/productcategory/search',  Routes.productCategoryRouter.searchProductCategory);</t>
+  </si>
+  <si>
+    <t>server.get('/productcategory/read',  Routes.productCategoryRouter.readProductCategory);</t>
+  </si>
+  <si>
+    <t>server.get('/productcategory/checkcode',  Routes.productCategoryRouter.checkExistCodeProductCategory);</t>
+  </si>
+  <si>
+    <t>server.post('/productcategory/add',    Routes.productCategoryRouter.addProductCategory);</t>
+  </si>
+  <si>
+    <t>server.post('/productcategory/update', Routes.productCategoryRouter.updateProductCategory);</t>
+  </si>
+  <si>
+    <t>server.get('/sku/search',  Routes.skuRouter.searchSku);</t>
+  </si>
+  <si>
+    <t>server.get('/sku/read',    Routes.skuRouter.readSku);</t>
+  </si>
+  <si>
+    <t>server.post('/sku/add',    Routes.skuRouter.addSku);</t>
+  </si>
+  <si>
+    <t>server.post('/sku/update', Routes.skuRouter.updateSku);</t>
+  </si>
+  <si>
+    <t>server.get('/item/search', Routes.itemRouter.searchItem);</t>
+  </si>
+  <si>
+    <t>server.get('/item/read', Routes.itemRouter.readItem);</t>
+  </si>
+  <si>
+    <t>server.post('/item/add', Routes.itemRouter.addItem);</t>
+  </si>
+  <si>
+    <t>server.put('/item/update', Routes.itemRouter.updateItem);</t>
+  </si>
+  <si>
+    <t>server.get('/item/getInfo', Routes.itemRouter.getItemInfo);</t>
+  </si>
+  <si>
+    <t>server.get('/itemstore/read', Routes.itemRouter.readItemStore);</t>
+  </si>
+  <si>
+    <t>server.get('/itemoption/search', Routes.itemOptionRouter.searchItemOption);</t>
+  </si>
+  <si>
+    <t>server.post('/itemoption/add', Routes.itemOptionRouter.addItemOption);</t>
+  </si>
+  <si>
+    <t>server.post('/itemoption/update', Routes.itemOptionRouter.updateItemOption);</t>
+  </si>
+  <si>
+    <t>server.get('itemoption/checkcode', Routes.itemOptionRouter.checkExistCode);</t>
+  </si>
+  <si>
+    <t>server.get('itemcategory/checkcode', Routes.itemCategoryRouter.checkExistCode);</t>
+  </si>
+  <si>
+    <t>server.get('/itemcategory/search', Routes.itemCategoryRouter.searchItemCategory);</t>
+  </si>
+  <si>
+    <t>server.get('/itemcategory/get-from-item', Routes.itemCategoryRouter.getCategoryItemStore);</t>
+  </si>
+  <si>
+    <t>server.post('/itemcategory/add', Routes.itemCategoryRouter.addItemCategory);</t>
+  </si>
+  <si>
+    <t>server.post('/itemcategory/update', Routes.itemCategoryRouter.updateItemCategory);</t>
+  </si>
+  <si>
+    <t>Page object model selenium</t>
+  </si>
+  <si>
+    <t>https://www.busyqa.com/fullstack</t>
+  </si>
+  <si>
+    <t>cái này là 1 overview để học fullstack python + robot + selenium + Jenkins khá ok. Bên mình train cũng dùng cái này để train</t>
+  </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <fonts count="10">
+  <fonts count="14">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -809,8 +1187,35 @@
       <name val="Tahoma"/>
       <family val="2"/>
     </font>
+    <font>
+      <u/>
+      <sz val="11"/>
+      <color theme="10"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="9"/>
+      <color rgb="FF505050"/>
+      <name val="Arial"/>
+      <family val="2"/>
+    </font>
+    <font>
+      <sz val="8"/>
+      <color rgb="FF505050"/>
+      <name val="Arial"/>
+      <family val="2"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FFFF0000"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
   </fonts>
-  <fills count="4">
+  <fills count="5">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -829,8 +1234,14 @@
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFFF00"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
   </fills>
-  <borders count="3">
+  <borders count="10">
     <border>
       <left/>
       <right/>
@@ -864,11 +1275,103 @@
       </bottom>
       <diagonal/>
     </border>
+    <border>
+      <left style="thin">
+        <color indexed="64"/>
+      </left>
+      <right style="thin">
+        <color indexed="64"/>
+      </right>
+      <top style="thin">
+        <color indexed="64"/>
+      </top>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color indexed="64"/>
+      </left>
+      <right style="thin">
+        <color indexed="64"/>
+      </right>
+      <top/>
+      <bottom style="thin">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color indexed="64"/>
+      </left>
+      <right style="thin">
+        <color theme="0"/>
+      </right>
+      <top style="thin">
+        <color indexed="64"/>
+      </top>
+      <bottom style="thin">
+        <color theme="0"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color indexed="64"/>
+      </left>
+      <right style="thin">
+        <color theme="0"/>
+      </right>
+      <top style="thin">
+        <color theme="0"/>
+      </top>
+      <bottom style="thin">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color indexed="64"/>
+      </left>
+      <right/>
+      <top style="thin">
+        <color indexed="64"/>
+      </top>
+      <bottom style="thin">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right style="thin">
+        <color indexed="64"/>
+      </right>
+      <top style="thin">
+        <color indexed="64"/>
+      </top>
+      <bottom style="thin">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color indexed="64"/>
+      </left>
+      <right/>
+      <top/>
+      <bottom/>
+      <diagonal/>
+    </border>
   </borders>
-  <cellStyleXfs count="1">
+  <cellStyleXfs count="2">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="20">
+  <cellXfs count="46">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="left"/>
@@ -895,22 +1398,75 @@
     <xf numFmtId="0" fontId="6" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" indent="9"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyBorder="1"/>
     <xf numFmtId="0" fontId="9" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" indent="1"/>
     </xf>
+    <xf numFmtId="49" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="5" xfId="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="6" xfId="0" applyBorder="1"/>
+    <xf numFmtId="49" fontId="0" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyBorder="1"/>
+    <xf numFmtId="49" fontId="0" fillId="0" borderId="7" xfId="0" applyNumberFormat="1" applyBorder="1"/>
+    <xf numFmtId="49" fontId="0" fillId="0" borderId="7" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="top"/>
+    </xf>
+    <xf numFmtId="49" fontId="0" fillId="0" borderId="2" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="top"/>
+    </xf>
+    <xf numFmtId="49" fontId="0" fillId="0" borderId="8" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="9" xfId="0" applyBorder="1"/>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="7" xfId="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="9" xfId="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="1" xfId="1" applyBorder="1"/>
+    <xf numFmtId="49" fontId="0" fillId="4" borderId="0" xfId="0" applyNumberFormat="1" applyFill="1"/>
+    <xf numFmtId="49" fontId="10" fillId="0" borderId="7" xfId="1" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="49" fontId="13" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="49" fontId="10" fillId="0" borderId="1" xfId="1" applyNumberFormat="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left"/>
     </xf>
+    <xf numFmtId="49" fontId="0" fillId="0" borderId="7" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="49" fontId="0" fillId="0" borderId="2" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="49" fontId="0" fillId="0" borderId="8" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left"/>
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="1" xfId="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="top"/>
     </xf>
   </cellXfs>
-  <cellStyles count="1">
+  <cellStyles count="2">
+    <cellStyle name="Hyperlink" xfId="1" builtinId="8"/>
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
   </cellStyles>
   <dxfs count="0"/>
@@ -1496,7 +2052,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A2:E200"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A10" workbookViewId="0">
+    <sheetView topLeftCell="A10" workbookViewId="0">
       <selection activeCell="D22" sqref="D22"/>
     </sheetView>
   </sheetViews>
@@ -1805,7 +2361,7 @@
       <c r="D21" s="6" t="s">
         <v>55</v>
       </c>
-      <c r="E21" s="16" t="s">
+      <c r="E21" s="15" t="s">
         <v>173</v>
       </c>
     </row>
@@ -3549,6 +4105,71 @@
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup orientation="portrait" r:id="rId1"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet10.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <dimension ref="B2:B11"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="J20" sqref="J20"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="15"/>
+  <sheetData>
+    <row r="2" spans="2:2">
+      <c r="B2" t="s">
+        <v>239</v>
+      </c>
+    </row>
+    <row r="3" spans="2:2">
+      <c r="B3" t="s">
+        <v>240</v>
+      </c>
+    </row>
+    <row r="4" spans="2:2">
+      <c r="B4" t="s">
+        <v>241</v>
+      </c>
+    </row>
+    <row r="5" spans="2:2">
+      <c r="B5" t="s">
+        <v>242</v>
+      </c>
+    </row>
+    <row r="6" spans="2:2">
+      <c r="B6" t="s">
+        <v>243</v>
+      </c>
+    </row>
+    <row r="7" spans="2:2">
+      <c r="B7" t="s">
+        <v>244</v>
+      </c>
+    </row>
+    <row r="8" spans="2:2">
+      <c r="B8" t="s">
+        <v>245</v>
+      </c>
+    </row>
+    <row r="9" spans="2:2">
+      <c r="B9" t="s">
+        <v>246</v>
+      </c>
+    </row>
+    <row r="10" spans="2:2">
+      <c r="B10" t="s">
+        <v>247</v>
+      </c>
+    </row>
+    <row r="11" spans="2:2">
+      <c r="B11" t="s">
+        <v>248</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
 </file>
 
@@ -3609,20 +4230,20 @@
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A2:B9"/>
+  <dimension ref="A2:B19"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="B14" sqref="B14"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="B15" sqref="B15"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
   <cols>
-    <col min="1" max="1" width="19.42578125" customWidth="1"/>
-    <col min="2" max="2" width="134.140625" customWidth="1"/>
+    <col min="1" max="1" width="36.28515625" style="1" customWidth="1"/>
+    <col min="2" max="2" width="108.140625" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="2" spans="1:2">
-      <c r="A2" s="17" t="s">
+      <c r="A2" s="37" t="s">
         <v>109</v>
       </c>
       <c r="B2" s="11" t="s">
@@ -3630,13 +4251,13 @@
       </c>
     </row>
     <row r="3" spans="1:2">
-      <c r="A3" s="17"/>
+      <c r="A3" s="37"/>
       <c r="B3" s="11" t="s">
         <v>111</v>
       </c>
     </row>
     <row r="4" spans="1:2">
-      <c r="A4" s="11" t="s">
+      <c r="A4" s="17" t="s">
         <v>112</v>
       </c>
       <c r="B4" s="11" t="s">
@@ -3644,7 +4265,7 @@
       </c>
     </row>
     <row r="5" spans="1:2">
-      <c r="A5" s="17" t="s">
+      <c r="A5" s="37" t="s">
         <v>114</v>
       </c>
       <c r="B5" s="11" t="s">
@@ -3652,13 +4273,13 @@
       </c>
     </row>
     <row r="6" spans="1:2">
-      <c r="A6" s="17"/>
+      <c r="A6" s="37"/>
       <c r="B6" s="11" t="s">
         <v>116</v>
       </c>
     </row>
     <row r="7" spans="1:2">
-      <c r="A7" s="11" t="s">
+      <c r="A7" s="17" t="s">
         <v>117</v>
       </c>
       <c r="B7" s="11" t="s">
@@ -3666,25 +4287,91 @@
       </c>
     </row>
     <row r="8" spans="1:2">
-      <c r="A8" s="11" t="s">
+      <c r="A8" s="17" t="s">
         <v>119</v>
       </c>
       <c r="B8" s="11"/>
     </row>
     <row r="9" spans="1:2">
-      <c r="A9" s="14" t="s">
+      <c r="A9" s="18" t="s">
         <v>149</v>
       </c>
-      <c r="B9" s="15" t="s">
+      <c r="B9" s="14" t="s">
         <v>148</v>
       </c>
     </row>
+    <row r="10" spans="1:2">
+      <c r="A10" s="38" t="s">
+        <v>201</v>
+      </c>
+      <c r="B10" s="19" t="s">
+        <v>202</v>
+      </c>
+    </row>
+    <row r="11" spans="1:2">
+      <c r="A11" s="39"/>
+      <c r="B11" s="20" t="s">
+        <v>203</v>
+      </c>
+    </row>
+    <row r="12" spans="1:2">
+      <c r="A12" s="37" t="s">
+        <v>205</v>
+      </c>
+      <c r="B12" s="30" t="s">
+        <v>207</v>
+      </c>
+    </row>
+    <row r="13" spans="1:2">
+      <c r="A13" s="37"/>
+      <c r="B13" s="11" t="s">
+        <v>206</v>
+      </c>
+    </row>
+    <row r="14" spans="1:2">
+      <c r="A14" s="37"/>
+      <c r="B14" s="11" t="s">
+        <v>219</v>
+      </c>
+    </row>
+    <row r="15" spans="1:2">
+      <c r="A15" s="36" t="s">
+        <v>208</v>
+      </c>
+      <c r="B15" s="30" t="s">
+        <v>220</v>
+      </c>
+    </row>
+    <row r="16" spans="1:2">
+      <c r="A16" s="36"/>
+      <c r="B16" s="11" t="s">
+        <v>221</v>
+      </c>
+    </row>
+    <row r="19" spans="1:2" ht="60">
+      <c r="A19" s="44" t="s">
+        <v>300</v>
+      </c>
+      <c r="B19" s="45" t="s">
+        <v>299</v>
+      </c>
+    </row>
   </sheetData>
-  <mergeCells count="2">
+  <mergeCells count="5">
+    <mergeCell ref="A15:A16"/>
     <mergeCell ref="A2:A3"/>
     <mergeCell ref="A5:A6"/>
+    <mergeCell ref="A10:A11"/>
+    <mergeCell ref="A12:A14"/>
   </mergeCells>
+  <hyperlinks>
+    <hyperlink ref="B11" r:id="rId1"/>
+    <hyperlink ref="B14" r:id="rId2"/>
+    <hyperlink ref="B15" r:id="rId3"/>
+    <hyperlink ref="B19" r:id="rId4"/>
+  </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup orientation="portrait" r:id="rId5"/>
 </worksheet>
 </file>
 
@@ -3752,22 +4439,22 @@
       </c>
     </row>
     <row r="13" spans="2:17">
-      <c r="C13" s="18" t="s">
+      <c r="C13" s="40" t="s">
         <v>38</v>
       </c>
-      <c r="D13" s="18"/>
-      <c r="E13" s="18" t="s">
+      <c r="D13" s="40"/>
+      <c r="E13" s="40" t="s">
         <v>39</v>
       </c>
-      <c r="F13" s="18"/>
-      <c r="G13" s="18" t="s">
+      <c r="F13" s="40"/>
+      <c r="G13" s="40" t="s">
         <v>48</v>
       </c>
-      <c r="H13" s="18"/>
-      <c r="M13" s="18" t="s">
+      <c r="H13" s="40"/>
+      <c r="M13" s="40" t="s">
         <v>48</v>
       </c>
-      <c r="N13" s="18"/>
+      <c r="N13" s="40"/>
       <c r="O13" t="s">
         <v>41</v>
       </c>
@@ -3777,72 +4464,72 @@
       <c r="Q13" s="2"/>
     </row>
     <row r="14" spans="2:17">
-      <c r="C14" s="19" t="s">
+      <c r="C14" s="36" t="s">
         <v>41</v>
       </c>
-      <c r="D14" s="19"/>
-      <c r="E14" s="19" t="s">
+      <c r="D14" s="36"/>
+      <c r="E14" s="36" t="s">
         <v>41</v>
       </c>
-      <c r="F14" s="19"/>
-      <c r="G14" s="19" t="s">
+      <c r="F14" s="36"/>
+      <c r="G14" s="36" t="s">
         <v>41</v>
       </c>
-      <c r="H14" s="19"/>
+      <c r="H14" s="36"/>
       <c r="K14" s="4"/>
       <c r="L14" s="4"/>
     </row>
     <row r="15" spans="2:17">
-      <c r="C15" s="19" t="s">
+      <c r="C15" s="36" t="s">
         <v>43</v>
       </c>
-      <c r="D15" s="19"/>
-      <c r="E15" s="19" t="s">
+      <c r="D15" s="36"/>
+      <c r="E15" s="36" t="s">
         <v>42</v>
       </c>
-      <c r="F15" s="19"/>
-      <c r="G15" s="19" t="s">
+      <c r="F15" s="36"/>
+      <c r="G15" s="36" t="s">
         <v>46</v>
       </c>
-      <c r="H15" s="19"/>
+      <c r="H15" s="36"/>
       <c r="K15" s="4"/>
       <c r="L15" s="4"/>
     </row>
     <row r="16" spans="2:17">
-      <c r="C16" s="19" t="s">
+      <c r="C16" s="36" t="s">
         <v>44</v>
       </c>
-      <c r="D16" s="19"/>
+      <c r="D16" s="36"/>
       <c r="E16" s="1"/>
       <c r="F16" s="1"/>
       <c r="G16" s="1"/>
       <c r="H16" s="1"/>
     </row>
     <row r="17" spans="3:8">
-      <c r="C17" s="19" t="s">
+      <c r="C17" s="36" t="s">
         <v>45</v>
       </c>
-      <c r="D17" s="19"/>
+      <c r="D17" s="36"/>
       <c r="E17" s="1"/>
       <c r="F17" s="1"/>
       <c r="G17" s="1"/>
       <c r="H17" s="1"/>
     </row>
     <row r="18" spans="3:8">
-      <c r="C18" s="19" t="s">
+      <c r="C18" s="36" t="s">
         <v>46</v>
       </c>
-      <c r="D18" s="19"/>
+      <c r="D18" s="36"/>
       <c r="E18" s="1"/>
       <c r="F18" s="1"/>
       <c r="G18" s="1"/>
       <c r="H18" s="1"/>
     </row>
     <row r="19" spans="3:8">
-      <c r="C19" s="19" t="s">
+      <c r="C19" s="36" t="s">
         <v>47</v>
       </c>
-      <c r="D19" s="19"/>
+      <c r="D19" s="36"/>
       <c r="E19" s="1"/>
       <c r="F19" s="1"/>
       <c r="G19" s="1"/>
@@ -3854,48 +4541,43 @@
       </c>
     </row>
     <row r="23" spans="3:8">
-      <c r="C23" s="19" t="s">
+      <c r="C23" s="36" t="s">
         <v>41</v>
       </c>
-      <c r="D23" s="19"/>
+      <c r="D23" s="36"/>
     </row>
     <row r="24" spans="3:8">
-      <c r="C24" s="19" t="s">
+      <c r="C24" s="36" t="s">
         <v>43</v>
       </c>
-      <c r="D24" s="19"/>
+      <c r="D24" s="36"/>
     </row>
     <row r="25" spans="3:8">
-      <c r="C25" s="19" t="s">
+      <c r="C25" s="36" t="s">
         <v>44</v>
       </c>
-      <c r="D25" s="19"/>
+      <c r="D25" s="36"/>
     </row>
     <row r="26" spans="3:8">
-      <c r="C26" s="19" t="s">
+      <c r="C26" s="36" t="s">
         <v>45</v>
       </c>
-      <c r="D26" s="19"/>
+      <c r="D26" s="36"/>
     </row>
     <row r="27" spans="3:8">
-      <c r="C27" s="19" t="s">
+      <c r="C27" s="36" t="s">
         <v>46</v>
       </c>
-      <c r="D27" s="19"/>
+      <c r="D27" s="36"/>
     </row>
     <row r="28" spans="3:8">
-      <c r="C28" s="19" t="s">
+      <c r="C28" s="36" t="s">
         <v>47</v>
       </c>
-      <c r="D28" s="19"/>
+      <c r="D28" s="36"/>
     </row>
   </sheetData>
   <mergeCells count="20">
-    <mergeCell ref="C27:D27"/>
-    <mergeCell ref="C28:D28"/>
-    <mergeCell ref="C17:D17"/>
-    <mergeCell ref="C18:D18"/>
-    <mergeCell ref="C19:D19"/>
     <mergeCell ref="M13:N13"/>
     <mergeCell ref="C23:D23"/>
     <mergeCell ref="C24:D24"/>
@@ -3911,6 +4593,11 @@
     <mergeCell ref="C14:D14"/>
     <mergeCell ref="C15:D15"/>
     <mergeCell ref="C16:D16"/>
+    <mergeCell ref="C27:D27"/>
+    <mergeCell ref="C28:D28"/>
+    <mergeCell ref="C17:D17"/>
+    <mergeCell ref="C18:D18"/>
+    <mergeCell ref="C19:D19"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
@@ -3991,7 +4678,7 @@
   <dimension ref="B2:B3"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="D7" sqref="D7"/>
+      <selection activeCell="G16" sqref="G16"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
@@ -4009,4 +4696,654 @@
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
+</file>
+
+<file path=xl/worksheets/sheet8.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <dimension ref="B1:J28"/>
+  <sheetViews>
+    <sheetView topLeftCell="A13" workbookViewId="0">
+      <selection activeCell="I14" sqref="I14"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="15"/>
+  <cols>
+    <col min="1" max="1" width="9.140625" style="16"/>
+    <col min="2" max="2" width="11.5703125" style="16" customWidth="1"/>
+    <col min="3" max="16384" width="9.140625" style="16"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="2:10">
+      <c r="B1" s="16" t="s">
+        <v>204</v>
+      </c>
+      <c r="C1" s="16" t="s">
+        <v>200</v>
+      </c>
+    </row>
+    <row r="9" spans="2:10">
+      <c r="J9" s="16" t="s">
+        <v>183</v>
+      </c>
+    </row>
+    <row r="10" spans="2:10">
+      <c r="B10" s="16" t="s">
+        <v>176</v>
+      </c>
+      <c r="J10" s="16" t="s">
+        <v>184</v>
+      </c>
+    </row>
+    <row r="11" spans="2:10">
+      <c r="B11" s="16" t="s">
+        <v>177</v>
+      </c>
+      <c r="J11" s="16" t="s">
+        <v>185</v>
+      </c>
+    </row>
+    <row r="13" spans="2:10">
+      <c r="B13" s="16" t="s">
+        <v>178</v>
+      </c>
+    </row>
+    <row r="14" spans="2:10">
+      <c r="I14" s="16" t="s">
+        <v>298</v>
+      </c>
+    </row>
+    <row r="15" spans="2:10">
+      <c r="B15" s="16" t="s">
+        <v>179</v>
+      </c>
+    </row>
+    <row r="16" spans="2:10">
+      <c r="B16" s="16" t="s">
+        <v>180</v>
+      </c>
+    </row>
+    <row r="17" spans="2:2">
+      <c r="B17" s="16" t="s">
+        <v>181</v>
+      </c>
+    </row>
+    <row r="18" spans="2:2">
+      <c r="B18" s="16" t="s">
+        <v>182</v>
+      </c>
+    </row>
+    <row r="21" spans="2:2">
+      <c r="B21" s="31" t="s">
+        <v>222</v>
+      </c>
+    </row>
+    <row r="22" spans="2:2">
+      <c r="B22" s="16" t="s">
+        <v>224</v>
+      </c>
+    </row>
+    <row r="23" spans="2:2">
+      <c r="B23" s="16" t="s">
+        <v>225</v>
+      </c>
+    </row>
+    <row r="25" spans="2:2">
+      <c r="B25" s="16" t="s">
+        <v>223</v>
+      </c>
+    </row>
+    <row r="26" spans="2:2">
+      <c r="B26" s="16" t="s">
+        <v>226</v>
+      </c>
+    </row>
+    <row r="27" spans="2:2">
+      <c r="B27" s="16" t="s">
+        <v>227</v>
+      </c>
+    </row>
+    <row r="28" spans="2:2">
+      <c r="B28" s="16" t="s">
+        <v>228</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet9.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <dimension ref="B2:P76"/>
+  <sheetViews>
+    <sheetView topLeftCell="A16" workbookViewId="0">
+      <selection activeCell="J30" sqref="J30"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="15"/>
+  <cols>
+    <col min="1" max="2" width="9.140625" style="16"/>
+    <col min="3" max="3" width="13" style="16" customWidth="1"/>
+    <col min="4" max="9" width="9.140625" style="16"/>
+    <col min="10" max="10" width="5.7109375" style="16" customWidth="1"/>
+    <col min="11" max="11" width="12.28515625" style="16" customWidth="1"/>
+    <col min="12" max="13" width="9.140625" style="16"/>
+    <col min="14" max="14" width="26.5703125" style="16" customWidth="1"/>
+    <col min="15" max="15" width="17.7109375" style="16" customWidth="1"/>
+    <col min="16" max="16" width="19.5703125" style="16" customWidth="1"/>
+    <col min="17" max="16384" width="9.140625" style="16"/>
+  </cols>
+  <sheetData>
+    <row r="2" spans="2:16">
+      <c r="B2" s="16" t="s">
+        <v>186</v>
+      </c>
+    </row>
+    <row r="3" spans="2:16">
+      <c r="B3" s="16" t="s">
+        <v>187</v>
+      </c>
+    </row>
+    <row r="4" spans="2:16">
+      <c r="B4" s="16" t="s">
+        <v>188</v>
+      </c>
+    </row>
+    <row r="5" spans="2:16">
+      <c r="B5" s="16" t="s">
+        <v>194</v>
+      </c>
+    </row>
+    <row r="6" spans="2:16">
+      <c r="B6" s="16" t="s">
+        <v>189</v>
+      </c>
+    </row>
+    <row r="7" spans="2:16">
+      <c r="B7" s="16" t="s">
+        <v>190</v>
+      </c>
+    </row>
+    <row r="8" spans="2:16">
+      <c r="B8" s="16" t="s">
+        <v>191</v>
+      </c>
+    </row>
+    <row r="9" spans="2:16">
+      <c r="B9" s="16" t="s">
+        <v>192</v>
+      </c>
+    </row>
+    <row r="10" spans="2:16">
+      <c r="B10" s="16" t="s">
+        <v>195</v>
+      </c>
+    </row>
+    <row r="11" spans="2:16">
+      <c r="B11" s="16" t="s">
+        <v>193</v>
+      </c>
+    </row>
+    <row r="14" spans="2:16">
+      <c r="J14" s="16" t="s">
+        <v>197</v>
+      </c>
+    </row>
+    <row r="15" spans="2:16">
+      <c r="B15" s="16" t="s">
+        <v>196</v>
+      </c>
+      <c r="J15" s="16" t="s">
+        <v>198</v>
+      </c>
+      <c r="N15" s="34" t="s">
+        <v>249</v>
+      </c>
+      <c r="O15" s="35" t="s">
+        <v>254</v>
+      </c>
+      <c r="P15" s="21" t="s">
+        <v>255</v>
+      </c>
+    </row>
+    <row r="16" spans="2:16">
+      <c r="J16" s="16" t="s">
+        <v>199</v>
+      </c>
+      <c r="L16" s="28"/>
+      <c r="N16" s="21" t="s">
+        <v>250</v>
+      </c>
+      <c r="O16" s="21"/>
+      <c r="P16" s="21"/>
+    </row>
+    <row r="17" spans="2:16">
+      <c r="N17" s="21" t="s">
+        <v>251</v>
+      </c>
+      <c r="O17" s="21"/>
+      <c r="P17" s="21"/>
+    </row>
+    <row r="18" spans="2:16">
+      <c r="B18" s="41" t="s">
+        <v>209</v>
+      </c>
+      <c r="C18" s="43"/>
+      <c r="D18" s="41" t="s">
+        <v>210</v>
+      </c>
+      <c r="E18" s="42"/>
+      <c r="F18" s="42"/>
+      <c r="G18" s="42"/>
+      <c r="H18" s="42"/>
+      <c r="I18" s="42"/>
+      <c r="J18" s="42"/>
+      <c r="K18" s="42"/>
+      <c r="L18" s="43"/>
+      <c r="N18" s="21" t="s">
+        <v>252</v>
+      </c>
+      <c r="O18" s="21"/>
+      <c r="P18" s="21"/>
+    </row>
+    <row r="19" spans="2:16">
+      <c r="B19" s="21" t="s">
+        <v>211</v>
+      </c>
+      <c r="C19" s="22" t="s">
+        <v>212</v>
+      </c>
+      <c r="D19" s="27" t="s">
+        <v>229</v>
+      </c>
+      <c r="E19" s="24"/>
+      <c r="F19" s="24"/>
+      <c r="G19" s="24"/>
+      <c r="H19" s="24"/>
+      <c r="I19" s="24"/>
+      <c r="J19" s="24"/>
+      <c r="K19" s="24"/>
+      <c r="L19" s="25"/>
+      <c r="N19" s="34" t="s">
+        <v>253</v>
+      </c>
+      <c r="O19" s="35" t="s">
+        <v>256</v>
+      </c>
+      <c r="P19" s="21" t="s">
+        <v>257</v>
+      </c>
+    </row>
+    <row r="20" spans="2:16">
+      <c r="B20" s="21" t="s">
+        <v>214</v>
+      </c>
+      <c r="C20" s="22" t="s">
+        <v>212</v>
+      </c>
+      <c r="D20" s="29" t="s">
+        <v>218</v>
+      </c>
+      <c r="E20" s="24"/>
+      <c r="F20" s="24"/>
+      <c r="G20" s="24"/>
+      <c r="H20" s="24"/>
+      <c r="I20" s="24"/>
+      <c r="J20" s="24"/>
+      <c r="K20" s="24"/>
+      <c r="L20" s="25"/>
+    </row>
+    <row r="21" spans="2:16">
+      <c r="B21" s="21" t="s">
+        <v>214</v>
+      </c>
+      <c r="C21" s="22" t="s">
+        <v>213</v>
+      </c>
+      <c r="D21" s="26" t="s">
+        <v>215</v>
+      </c>
+      <c r="E21" s="24"/>
+      <c r="F21" s="24"/>
+      <c r="G21" s="24"/>
+      <c r="H21" s="24"/>
+      <c r="I21" s="24"/>
+      <c r="J21" s="24"/>
+      <c r="K21" s="24"/>
+      <c r="L21" s="25"/>
+    </row>
+    <row r="22" spans="2:16">
+      <c r="B22" s="21" t="s">
+        <v>214</v>
+      </c>
+      <c r="C22" s="22" t="s">
+        <v>235</v>
+      </c>
+      <c r="D22" s="23" t="s">
+        <v>216</v>
+      </c>
+      <c r="E22" s="24"/>
+      <c r="F22" s="24"/>
+      <c r="G22" s="24"/>
+      <c r="H22" s="24"/>
+      <c r="I22" s="24"/>
+      <c r="J22" s="24"/>
+      <c r="K22" s="24"/>
+      <c r="L22" s="25"/>
+    </row>
+    <row r="23" spans="2:16">
+      <c r="B23" s="21" t="s">
+        <v>214</v>
+      </c>
+      <c r="C23" s="22" t="s">
+        <v>234</v>
+      </c>
+      <c r="D23" s="23" t="s">
+        <v>217</v>
+      </c>
+      <c r="E23" s="24"/>
+      <c r="F23" s="24"/>
+      <c r="G23" s="24"/>
+      <c r="H23" s="24"/>
+      <c r="I23" s="24"/>
+      <c r="J23" s="24"/>
+      <c r="K23" s="24"/>
+      <c r="L23" s="25"/>
+    </row>
+    <row r="24" spans="2:16">
+      <c r="B24" s="21" t="s">
+        <v>211</v>
+      </c>
+      <c r="C24" s="22" t="s">
+        <v>233</v>
+      </c>
+      <c r="D24" s="23" t="s">
+        <v>230</v>
+      </c>
+      <c r="E24" s="24"/>
+      <c r="F24" s="24"/>
+      <c r="G24" s="24"/>
+      <c r="H24" s="24"/>
+      <c r="I24" s="24"/>
+      <c r="J24" s="24"/>
+      <c r="K24" s="24"/>
+      <c r="L24" s="25"/>
+    </row>
+    <row r="25" spans="2:16">
+      <c r="B25" s="21" t="s">
+        <v>214</v>
+      </c>
+      <c r="C25" s="22" t="s">
+        <v>232</v>
+      </c>
+      <c r="D25" s="32" t="s">
+        <v>231</v>
+      </c>
+      <c r="E25" s="24"/>
+      <c r="F25" s="24"/>
+      <c r="G25" s="24"/>
+      <c r="H25" s="24"/>
+      <c r="I25" s="24"/>
+      <c r="J25" s="24"/>
+      <c r="K25" s="24"/>
+      <c r="L25" s="25"/>
+    </row>
+    <row r="26" spans="2:16">
+      <c r="B26" s="21" t="s">
+        <v>211</v>
+      </c>
+      <c r="C26" s="22" t="s">
+        <v>232</v>
+      </c>
+      <c r="D26" s="23" t="s">
+        <v>236</v>
+      </c>
+      <c r="E26" s="24"/>
+      <c r="F26" s="24"/>
+      <c r="G26" s="24"/>
+      <c r="H26" s="24"/>
+      <c r="I26" s="24"/>
+      <c r="J26" s="24"/>
+      <c r="K26" s="24"/>
+      <c r="L26" s="25"/>
+    </row>
+    <row r="27" spans="2:16">
+      <c r="B27" s="21" t="s">
+        <v>214</v>
+      </c>
+      <c r="C27" s="22" t="s">
+        <v>237</v>
+      </c>
+      <c r="D27" s="23" t="s">
+        <v>238</v>
+      </c>
+      <c r="E27" s="24"/>
+      <c r="F27" s="24"/>
+      <c r="G27" s="24"/>
+      <c r="H27" s="24"/>
+      <c r="I27" s="24"/>
+      <c r="J27" s="24"/>
+      <c r="K27" s="24"/>
+      <c r="L27" s="25"/>
+    </row>
+    <row r="28" spans="2:16">
+      <c r="D28" s="33"/>
+    </row>
+    <row r="30" spans="2:16">
+      <c r="B30" s="16" t="s">
+        <v>258</v>
+      </c>
+      <c r="J30" s="16" t="s">
+        <v>298</v>
+      </c>
+    </row>
+    <row r="31" spans="2:16">
+      <c r="B31" s="16" t="s">
+        <v>259</v>
+      </c>
+    </row>
+    <row r="32" spans="2:16">
+      <c r="B32" s="16" t="s">
+        <v>260</v>
+      </c>
+    </row>
+    <row r="33" spans="2:2">
+      <c r="B33" s="16" t="s">
+        <v>261</v>
+      </c>
+    </row>
+    <row r="34" spans="2:2">
+      <c r="B34" s="16" t="s">
+        <v>262</v>
+      </c>
+    </row>
+    <row r="35" spans="2:2">
+      <c r="B35" s="16" t="s">
+        <v>263</v>
+      </c>
+    </row>
+    <row r="37" spans="2:2">
+      <c r="B37" s="16" t="s">
+        <v>264</v>
+      </c>
+    </row>
+    <row r="38" spans="2:2">
+      <c r="B38" s="16" t="s">
+        <v>265</v>
+      </c>
+    </row>
+    <row r="39" spans="2:2">
+      <c r="B39" s="16" t="s">
+        <v>266</v>
+      </c>
+    </row>
+    <row r="40" spans="2:2">
+      <c r="B40" s="16" t="s">
+        <v>267</v>
+      </c>
+    </row>
+    <row r="41" spans="2:2">
+      <c r="B41" s="16" t="s">
+        <v>268</v>
+      </c>
+    </row>
+    <row r="43" spans="2:2">
+      <c r="B43" s="16" t="s">
+        <v>269</v>
+      </c>
+    </row>
+    <row r="44" spans="2:2">
+      <c r="B44" s="16" t="s">
+        <v>270</v>
+      </c>
+    </row>
+    <row r="45" spans="2:2">
+      <c r="B45" s="16" t="s">
+        <v>271</v>
+      </c>
+    </row>
+    <row r="46" spans="2:2">
+      <c r="B46" s="16" t="s">
+        <v>272</v>
+      </c>
+    </row>
+    <row r="47" spans="2:2">
+      <c r="B47" s="16" t="s">
+        <v>273</v>
+      </c>
+    </row>
+    <row r="49" spans="2:2">
+      <c r="B49" s="16" t="s">
+        <v>274</v>
+      </c>
+    </row>
+    <row r="50" spans="2:2">
+      <c r="B50" s="16" t="s">
+        <v>275</v>
+      </c>
+    </row>
+    <row r="51" spans="2:2">
+      <c r="B51" s="16" t="s">
+        <v>276</v>
+      </c>
+    </row>
+    <row r="52" spans="2:2">
+      <c r="B52" s="16" t="s">
+        <v>277</v>
+      </c>
+    </row>
+    <row r="53" spans="2:2">
+      <c r="B53" s="16" t="s">
+        <v>278</v>
+      </c>
+    </row>
+    <row r="55" spans="2:2">
+      <c r="B55" s="16" t="s">
+        <v>279</v>
+      </c>
+    </row>
+    <row r="56" spans="2:2">
+      <c r="B56" s="16" t="s">
+        <v>280</v>
+      </c>
+    </row>
+    <row r="57" spans="2:2">
+      <c r="B57" s="16" t="s">
+        <v>281</v>
+      </c>
+    </row>
+    <row r="58" spans="2:2">
+      <c r="B58" s="16" t="s">
+        <v>282</v>
+      </c>
+    </row>
+    <row r="60" spans="2:2">
+      <c r="B60" s="16" t="s">
+        <v>283</v>
+      </c>
+    </row>
+    <row r="61" spans="2:2">
+      <c r="B61" s="16" t="s">
+        <v>284</v>
+      </c>
+    </row>
+    <row r="62" spans="2:2">
+      <c r="B62" s="16" t="s">
+        <v>285</v>
+      </c>
+    </row>
+    <row r="63" spans="2:2">
+      <c r="B63" s="16" t="s">
+        <v>286</v>
+      </c>
+    </row>
+    <row r="64" spans="2:2">
+      <c r="B64" s="16" t="s">
+        <v>287</v>
+      </c>
+    </row>
+    <row r="65" spans="2:2">
+      <c r="B65" s="16" t="s">
+        <v>288</v>
+      </c>
+    </row>
+    <row r="67" spans="2:2">
+      <c r="B67" s="16" t="s">
+        <v>289</v>
+      </c>
+    </row>
+    <row r="68" spans="2:2">
+      <c r="B68" s="16" t="s">
+        <v>290</v>
+      </c>
+    </row>
+    <row r="69" spans="2:2">
+      <c r="B69" s="16" t="s">
+        <v>291</v>
+      </c>
+    </row>
+    <row r="70" spans="2:2">
+      <c r="B70" s="16" t="s">
+        <v>292</v>
+      </c>
+    </row>
+    <row r="72" spans="2:2">
+      <c r="B72" s="16" t="s">
+        <v>293</v>
+      </c>
+    </row>
+    <row r="73" spans="2:2">
+      <c r="B73" s="16" t="s">
+        <v>294</v>
+      </c>
+    </row>
+    <row r="74" spans="2:2">
+      <c r="B74" s="16" t="s">
+        <v>295</v>
+      </c>
+    </row>
+    <row r="75" spans="2:2">
+      <c r="B75" s="16" t="s">
+        <v>296</v>
+      </c>
+    </row>
+    <row r="76" spans="2:2">
+      <c r="B76" s="16" t="s">
+        <v>297</v>
+      </c>
+    </row>
+  </sheetData>
+  <mergeCells count="2">
+    <mergeCell ref="D18:L18"/>
+    <mergeCell ref="B18:C18"/>
+  </mergeCells>
+  <hyperlinks>
+    <hyperlink ref="D19" r:id="rId1"/>
+    <hyperlink ref="D25" r:id="rId2" location="/pricing/rental-rate"/>
+    <hyperlink ref="O15" r:id="rId3"/>
+    <hyperlink ref="O19" r:id="rId4"/>
+  </hyperlinks>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup orientation="portrait" r:id="rId5"/>
+</worksheet>
 </file>